--- a/analysis/KEGG_raw_data/PNAscr_30m_vs_H2O_30m_KEGG_FNN_30.xlsx
+++ b/analysis/KEGG_raw_data/PNAscr_30m_vs_H2O_30m_KEGG_FNN_30.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="294">
   <si>
     <t>NGenes</t>
   </si>
@@ -47,6 +47,9 @@
     <t>fnu02010</t>
   </si>
   <si>
+    <t>fnu04981</t>
+  </si>
+  <si>
     <t>fnu00900</t>
   </si>
   <si>
@@ -68,6 +71,9 @@
     <t>fnu01210</t>
   </si>
   <si>
+    <t>fnu00710</t>
+  </si>
+  <si>
     <t>fnu03010</t>
   </si>
   <si>
@@ -80,42 +86,51 @@
     <t>fnu00061</t>
   </si>
   <si>
+    <t>fnu00074</t>
+  </si>
+  <si>
+    <t>fnu04980</t>
+  </si>
+  <si>
+    <t>fnu01503</t>
+  </si>
+  <si>
+    <t>fnu00860</t>
+  </si>
+  <si>
+    <t>fnu03440</t>
+  </si>
+  <si>
+    <t>fnu00040</t>
+  </si>
+  <si>
+    <t>fnu00030</t>
+  </si>
+  <si>
+    <t>fnu00190</t>
+  </si>
+  <si>
+    <t>fnu00561</t>
+  </si>
+  <si>
+    <t>fnu00480</t>
+  </si>
+  <si>
     <t>fnu02020</t>
   </si>
   <si>
-    <t>fnu00860</t>
-  </si>
-  <si>
-    <t>fnu03440</t>
-  </si>
-  <si>
-    <t>fnu00040</t>
-  </si>
-  <si>
-    <t>fnu00030</t>
-  </si>
-  <si>
-    <t>fnu00190</t>
-  </si>
-  <si>
-    <t>fnu00561</t>
-  </si>
-  <si>
-    <t>fnu00480</t>
-  </si>
-  <si>
     <t>fnu00010</t>
   </si>
   <si>
     <t>fnu00550</t>
   </si>
   <si>
+    <t>fnu00240</t>
+  </si>
+  <si>
     <t>fnu01200</t>
   </si>
   <si>
-    <t>fnu00240</t>
-  </si>
-  <si>
     <t>fnu00523</t>
   </si>
   <si>
@@ -131,16 +146,19 @@
     <t>fnu00362</t>
   </si>
   <si>
+    <t>fnu00670</t>
+  </si>
+  <si>
     <t>fnu00350</t>
   </si>
   <si>
+    <t>fnu00400</t>
+  </si>
+  <si>
     <t>fnu01120</t>
   </si>
   <si>
-    <t>fnu00400</t>
-  </si>
-  <si>
-    <t>fnu00670</t>
+    <t>fnu01501</t>
   </si>
   <si>
     <t>fnu00540</t>
@@ -149,123 +167,123 @@
     <t>fnu00360</t>
   </si>
   <si>
+    <t>fnu03030</t>
+  </si>
+  <si>
     <t>fnu01212</t>
   </si>
   <si>
-    <t>fnu03030</t>
+    <t>fnu00450</t>
+  </si>
+  <si>
+    <t>fnu03410</t>
+  </si>
+  <si>
+    <t>fnu00650</t>
+  </si>
+  <si>
+    <t>fnu00630</t>
+  </si>
+  <si>
+    <t>fnu01230</t>
+  </si>
+  <si>
+    <t>fnu00052</t>
+  </si>
+  <si>
+    <t>fnu00051</t>
+  </si>
+  <si>
+    <t>fnu00250</t>
+  </si>
+  <si>
+    <t>fnu01502</t>
+  </si>
+  <si>
+    <t>fnu00410</t>
+  </si>
+  <si>
+    <t>fnu00230</t>
+  </si>
+  <si>
+    <t>fnu01110</t>
+  </si>
+  <si>
+    <t>fnu00260</t>
+  </si>
+  <si>
+    <t>fnu00552</t>
+  </si>
+  <si>
+    <t>fnu00730</t>
+  </si>
+  <si>
+    <t>fnu00300</t>
+  </si>
+  <si>
+    <t>fnu00130</t>
+  </si>
+  <si>
+    <t>fnu00620</t>
+  </si>
+  <si>
+    <t>fnu02060</t>
+  </si>
+  <si>
+    <t>fnu01240</t>
+  </si>
+  <si>
+    <t>fnu03070</t>
+  </si>
+  <si>
+    <t>fnu00680</t>
+  </si>
+  <si>
+    <t>fnu00640</t>
+  </si>
+  <si>
+    <t>fnu00270</t>
+  </si>
+  <si>
+    <t>fnu00910</t>
+  </si>
+  <si>
+    <t>fnu00280</t>
+  </si>
+  <si>
+    <t>fnu00720</t>
+  </si>
+  <si>
+    <t>fnu00220</t>
+  </si>
+  <si>
+    <t>fnu00330</t>
+  </si>
+  <si>
+    <t>fnu00770</t>
+  </si>
+  <si>
+    <t>fnu01250</t>
+  </si>
+  <si>
+    <t>fnu00625</t>
+  </si>
+  <si>
+    <t>fnu00643</t>
   </si>
   <si>
     <t>fnu00760</t>
   </si>
   <si>
-    <t>fnu00650</t>
-  </si>
-  <si>
-    <t>fnu00450</t>
-  </si>
-  <si>
-    <t>fnu03410</t>
-  </si>
-  <si>
-    <t>fnu01110</t>
-  </si>
-  <si>
-    <t>fnu00630</t>
-  </si>
-  <si>
-    <t>fnu01230</t>
-  </si>
-  <si>
-    <t>fnu00052</t>
-  </si>
-  <si>
-    <t>fnu00051</t>
-  </si>
-  <si>
-    <t>fnu00250</t>
-  </si>
-  <si>
-    <t>fnu01502</t>
-  </si>
-  <si>
-    <t>fnu00230</t>
-  </si>
-  <si>
-    <t>fnu00260</t>
+    <t>fnu00310</t>
+  </si>
+  <si>
+    <t>fnu00564</t>
   </si>
   <si>
     <t>fnu00920</t>
   </si>
   <si>
-    <t>fnu00552</t>
-  </si>
-  <si>
-    <t>fnu00730</t>
-  </si>
-  <si>
-    <t>fnu00300</t>
-  </si>
-  <si>
-    <t>fnu00220</t>
-  </si>
-  <si>
-    <t>fnu00130</t>
-  </si>
-  <si>
-    <t>fnu00620</t>
-  </si>
-  <si>
-    <t>fnu00640</t>
-  </si>
-  <si>
-    <t>fnu02060</t>
-  </si>
-  <si>
-    <t>fnu01240</t>
-  </si>
-  <si>
-    <t>fnu03070</t>
-  </si>
-  <si>
-    <t>fnu00680</t>
-  </si>
-  <si>
-    <t>fnu00270</t>
-  </si>
-  <si>
-    <t>fnu01503</t>
-  </si>
-  <si>
-    <t>fnu00910</t>
-  </si>
-  <si>
-    <t>fnu00330</t>
-  </si>
-  <si>
-    <t>fnu00770</t>
-  </si>
-  <si>
-    <t>fnu01250</t>
-  </si>
-  <si>
-    <t>fnu00625</t>
-  </si>
-  <si>
-    <t>fnu01501</t>
-  </si>
-  <si>
-    <t>fnu00643</t>
-  </si>
-  <si>
-    <t>fnu00310</t>
-  </si>
-  <si>
-    <t>fnu00410</t>
-  </si>
-  <si>
-    <t>fnu00564</t>
-  </si>
-  <si>
     <t>fnu00020</t>
   </si>
   <si>
@@ -275,9 +293,6 @@
     <t>fnu00500</t>
   </si>
   <si>
-    <t>fnu00280</t>
-  </si>
-  <si>
     <t>fnu03060</t>
   </si>
   <si>
@@ -287,21 +302,21 @@
     <t>fnu03430</t>
   </si>
   <si>
+    <t>fnu01100</t>
+  </si>
+  <si>
+    <t>fnu00071</t>
+  </si>
+  <si>
     <t>fnu00520</t>
   </si>
   <si>
-    <t>fnu00071</t>
-  </si>
-  <si>
     <t>fnu03420</t>
   </si>
   <si>
     <t>rpoE</t>
   </si>
   <si>
-    <t>fnu01100</t>
-  </si>
-  <si>
     <t>fnu03020</t>
   </si>
   <si>
@@ -323,6 +338,9 @@
     <t>ABC transporters</t>
   </si>
   <si>
+    <t>Folate transport and metabolism</t>
+  </si>
+  <si>
     <t>Terpenoid backbone biosynthesis</t>
   </si>
   <si>
@@ -344,6 +362,9 @@
     <t>2-Oxocarboxylic acid metabolism</t>
   </si>
   <si>
+    <t>Carbon fixation by Calvin cycle</t>
+  </si>
+  <si>
     <t>Ribosome</t>
   </si>
   <si>
@@ -356,42 +377,51 @@
     <t>Fatty acid biosynthesis</t>
   </si>
   <si>
+    <t>Mycolic acid biosynthesis</t>
+  </si>
+  <si>
+    <t>Cobalamin transport and metabolism</t>
+  </si>
+  <si>
+    <t>Cationic antimicrobial peptide (CAMP) resistance</t>
+  </si>
+  <si>
+    <t>Porphyrin metabolism</t>
+  </si>
+  <si>
+    <t>Homologous recombination</t>
+  </si>
+  <si>
+    <t>Pentose and glucuronate interconversions</t>
+  </si>
+  <si>
+    <t>Pentose phosphate pathway</t>
+  </si>
+  <si>
+    <t>Oxidative phosphorylation</t>
+  </si>
+  <si>
+    <t>Glycerolipid metabolism</t>
+  </si>
+  <si>
+    <t>Glutathione metabolism</t>
+  </si>
+  <si>
     <t>Two-component system</t>
   </si>
   <si>
-    <t>Porphyrin metabolism</t>
-  </si>
-  <si>
-    <t>Homologous recombination</t>
-  </si>
-  <si>
-    <t>Pentose and glucuronate interconversions</t>
-  </si>
-  <si>
-    <t>Pentose phosphate pathway</t>
-  </si>
-  <si>
-    <t>Oxidative phosphorylation</t>
-  </si>
-  <si>
-    <t>Glycerolipid metabolism</t>
-  </si>
-  <si>
-    <t>Glutathione metabolism</t>
-  </si>
-  <si>
     <t>Glycolysis / Gluconeogenesis</t>
   </si>
   <si>
     <t>Peptidoglycan biosynthesis</t>
   </si>
   <si>
+    <t>Pyrimidine metabolism</t>
+  </si>
+  <si>
     <t>Carbon metabolism</t>
   </si>
   <si>
-    <t>Pyrimidine metabolism</t>
-  </si>
-  <si>
     <t>Polyketide sugar unit biosynthesis</t>
   </si>
   <si>
@@ -407,16 +437,19 @@
     <t>Benzoate degradation</t>
   </si>
   <si>
+    <t>One carbon pool by folate</t>
+  </si>
+  <si>
     <t>Tyrosine metabolism</t>
   </si>
   <si>
+    <t>Phenylalanine, tyrosine and tryptophan biosynthesis</t>
+  </si>
+  <si>
     <t>Microbial metabolism in diverse environments</t>
   </si>
   <si>
-    <t>Phenylalanine, tyrosine and tryptophan biosynthesis</t>
-  </si>
-  <si>
-    <t>One carbon pool by folate</t>
+    <t>beta-Lactam resistance</t>
   </si>
   <si>
     <t>Lipopolysaccharide biosynthesis</t>
@@ -425,123 +458,123 @@
     <t>Phenylalanine metabolism</t>
   </si>
   <si>
+    <t>DNA replication</t>
+  </si>
+  <si>
     <t>Fatty acid metabolism</t>
   </si>
   <si>
-    <t>DNA replication</t>
+    <t>Selenocompound metabolism</t>
+  </si>
+  <si>
+    <t>Base excision repair</t>
+  </si>
+  <si>
+    <t>Butanoate metabolism</t>
+  </si>
+  <si>
+    <t>Glyoxylate and dicarboxylate metabolism</t>
+  </si>
+  <si>
+    <t>Biosynthesis of amino acids</t>
+  </si>
+  <si>
+    <t>Galactose metabolism</t>
+  </si>
+  <si>
+    <t>Fructose and mannose metabolism</t>
+  </si>
+  <si>
+    <t>Alanine, aspartate and glutamate metabolism</t>
+  </si>
+  <si>
+    <t>Vancomycin resistance</t>
+  </si>
+  <si>
+    <t>beta-Alanine metabolism</t>
+  </si>
+  <si>
+    <t>Purine metabolism</t>
+  </si>
+  <si>
+    <t>Biosynthesis of secondary metabolites</t>
+  </si>
+  <si>
+    <t>Glycine, serine and threonine metabolism</t>
+  </si>
+  <si>
+    <t>Teichoic acid biosynthesis</t>
+  </si>
+  <si>
+    <t>Thiamine metabolism</t>
+  </si>
+  <si>
+    <t>Lysine biosynthesis</t>
+  </si>
+  <si>
+    <t>Ubiquinone and other terpenoid-quinone biosynthesis</t>
+  </si>
+  <si>
+    <t>Pyruvate metabolism</t>
+  </si>
+  <si>
+    <t>Phosphotransferase system (PTS)</t>
+  </si>
+  <si>
+    <t>Biosynthesis of cofactors</t>
+  </si>
+  <si>
+    <t>Bacterial secretion system</t>
+  </si>
+  <si>
+    <t>Methane metabolism</t>
+  </si>
+  <si>
+    <t>Propanoate metabolism</t>
+  </si>
+  <si>
+    <t>Cysteine and methionine metabolism</t>
+  </si>
+  <si>
+    <t>Nitrogen metabolism</t>
+  </si>
+  <si>
+    <t>Valine, leucine and isoleucine degradation</t>
+  </si>
+  <si>
+    <t>Other carbon fixation pathways</t>
+  </si>
+  <si>
+    <t>Arginine biosynthesis</t>
+  </si>
+  <si>
+    <t>Arginine and proline metabolism</t>
+  </si>
+  <si>
+    <t>Pantothenate and CoA biosynthesis</t>
+  </si>
+  <si>
+    <t>Biosynthesis of nucleotide sugars</t>
+  </si>
+  <si>
+    <t>Chloroalkane and chloroalkene degradation</t>
+  </si>
+  <si>
+    <t>Styrene degradation</t>
   </si>
   <si>
     <t>Nicotinate and nicotinamide metabolism</t>
   </si>
   <si>
-    <t>Butanoate metabolism</t>
-  </si>
-  <si>
-    <t>Selenocompound metabolism</t>
-  </si>
-  <si>
-    <t>Base excision repair</t>
-  </si>
-  <si>
-    <t>Biosynthesis of secondary metabolites</t>
-  </si>
-  <si>
-    <t>Glyoxylate and dicarboxylate metabolism</t>
-  </si>
-  <si>
-    <t>Biosynthesis of amino acids</t>
-  </si>
-  <si>
-    <t>Galactose metabolism</t>
-  </si>
-  <si>
-    <t>Fructose and mannose metabolism</t>
-  </si>
-  <si>
-    <t>Alanine, aspartate and glutamate metabolism</t>
-  </si>
-  <si>
-    <t>Vancomycin resistance</t>
-  </si>
-  <si>
-    <t>Purine metabolism</t>
-  </si>
-  <si>
-    <t>Glycine, serine and threonine metabolism</t>
+    <t>Lysine degradation</t>
+  </si>
+  <si>
+    <t>Glycerophospholipid metabolism</t>
   </si>
   <si>
     <t>Sulfur metabolism</t>
   </si>
   <si>
-    <t>Teichoic acid biosynthesis</t>
-  </si>
-  <si>
-    <t>Thiamine metabolism</t>
-  </si>
-  <si>
-    <t>Lysine biosynthesis</t>
-  </si>
-  <si>
-    <t>Arginine biosynthesis</t>
-  </si>
-  <si>
-    <t>Ubiquinone and other terpenoid-quinone biosynthesis</t>
-  </si>
-  <si>
-    <t>Pyruvate metabolism</t>
-  </si>
-  <si>
-    <t>Propanoate metabolism</t>
-  </si>
-  <si>
-    <t>Phosphotransferase system (PTS)</t>
-  </si>
-  <si>
-    <t>Biosynthesis of cofactors</t>
-  </si>
-  <si>
-    <t>Bacterial secretion system</t>
-  </si>
-  <si>
-    <t>Methane metabolism</t>
-  </si>
-  <si>
-    <t>Cysteine and methionine metabolism</t>
-  </si>
-  <si>
-    <t>Cationic antimicrobial peptide (CAMP) resistance</t>
-  </si>
-  <si>
-    <t>Nitrogen metabolism</t>
-  </si>
-  <si>
-    <t>Arginine and proline metabolism</t>
-  </si>
-  <si>
-    <t>Pantothenate and CoA biosynthesis</t>
-  </si>
-  <si>
-    <t>Biosynthesis of nucleotide sugars</t>
-  </si>
-  <si>
-    <t>Chloroalkane and chloroalkene degradation</t>
-  </si>
-  <si>
-    <t>beta-Lactam resistance</t>
-  </si>
-  <si>
-    <t>Styrene degradation</t>
-  </si>
-  <si>
-    <t>Lysine degradation</t>
-  </si>
-  <si>
-    <t>beta-Alanine metabolism</t>
-  </si>
-  <si>
-    <t>Glycerophospholipid metabolism</t>
-  </si>
-  <si>
     <t>Citrate cycle (TCA cycle)</t>
   </si>
   <si>
@@ -551,9 +584,6 @@
     <t>Starch and sucrose metabolism</t>
   </si>
   <si>
-    <t>Valine, leucine and isoleucine degradation</t>
-  </si>
-  <si>
     <t>Protein export</t>
   </si>
   <si>
@@ -563,31 +593,34 @@
     <t>Mismatch repair</t>
   </si>
   <si>
+    <t>Metabolic pathways</t>
+  </si>
+  <si>
+    <t>Fatty acid degradation</t>
+  </si>
+  <si>
     <t>Amino sugar and nucleotide sugar metabolism</t>
   </si>
   <si>
-    <t>Fatty acid degradation</t>
-  </si>
-  <si>
     <t>Nucleotide excision repair</t>
   </si>
   <si>
-    <t>Metabolic pathways</t>
-  </si>
-  <si>
     <t>RNA polymerase</t>
   </si>
   <si>
     <t>Sulfur relay system</t>
   </si>
   <si>
-    <t>cds-C4N14_02370;cds-C4N14_04340;cds-C4N14_04345;cds-C4N14_04350;cds-C4N14_04355;cds-C4N14_05365;cds-C4N14_05370;cds-C4N14_05375;cds-C4N14_05380;cds-C4N14_05385;cds-C4N14_09550;cds-C4N14_07840;cds-C4N14_07185;cds-C4N14_06785;cds-C4N14_06610;cds-C4N14_06605;cds-C4N14_06600;cds-C4N14_06595;cds-C4N14_06590;cds-C4N14_06535;cds-C4N14_05535;cds-C4N14_05425;cds-C4N14_10225;cds-C4N14_10230;cds-C4N14_10235;cds-C4N14_10240;cds-C4N14_10245;cds-C4N14_10405;cds-C4N14_10570;cds-C4N14_10575;cds-C4N14_10580;cds-C4N14_10585;cds-C4N14_10590;cds-C4N14_00060;cds-C4N14_00140;cds-C4N14_00145;cds-C4N14_00150;cds-C4N14_00155;cds-C4N14_00160;cds-C4N14_00680;cds-C4N14_00795;cds-C4N14_00800;cds-C4N14_00805;cds-C4N14_00810;cds-C4N14_00815;cds-C4N14_01180;cds-C4N14_01890</t>
+    <t>cds-C4N14_02370;cds-C4N14_04340;cds-C4N14_04345;cds-C4N14_04350;cds-C4N14_04355;cds-C4N14_05365;cds-C4N14_05370;cds-C4N14_05375;cds-C4N14_05380;cds-C4N14_05385;cds-C4N14_09550;cds-C4N14_07840;cds-C4N14_07185;cds-C4N14_06785;cds-C4N14_06610;cds-C4N14_06605;cds-C4N14_06600;cds-C4N14_06595;cds-C4N14_06590;cds-C4N14_06535;cds-C4N14_05535;cds-C4N14_05425;cds-C4N14_10225;cds-C4N14_10230;cds-C4N14_10235;cds-C4N14_10240;cds-C4N14_10405;cds-C4N14_10570;cds-C4N14_10575;cds-C4N14_10580;cds-C4N14_10585;cds-C4N14_10590;cds-C4N14_00060;cds-C4N14_00140;cds-C4N14_00145;cds-C4N14_00150;cds-C4N14_00155;cds-C4N14_00160;cds-C4N14_00680;cds-C4N14_00795;cds-C4N14_00800;cds-C4N14_00805;cds-C4N14_00810;cds-C4N14_00815;cds-C4N14_01180;cds-C4N14_01890</t>
   </si>
   <si>
     <t>cds-C4N14_10125;cds-C4N14_09770;cds-C4N14_09465;cds-C4N14_06320;cds-C4N14_10420;cds-C4N14_10690;cds-C4N14_10710;cds-C4N14_00495;cds-C4N14_01240;cds-C4N14_03755;cds-C4N14_03750</t>
   </si>
   <si>
-    <t>cds-C4N14_04685;cds-C4N14_04905;cds-C4N14_04910;cds-C4N14_04915;cds-C4N14_05265;cds-C4N14_05270;cds-C4N14_05275;cds-C4N14_09325;cds-C4N14_09320;cds-C4N14_09165;cds-C4N14_09160;cds-C4N14_09145;cds-C4N14_08950;cds-C4N14_08945;cds-C4N14_08940;cds-C4N14_08900;cds-C4N14_08895;cds-C4N14_08890;cds-C4N14_08885;cds-C4N14_08745;cds-C4N14_08220;cds-C4N14_08215;cds-C4N14_08210;cds-C4N14_07440;cds-C4N14_07015;cds-C4N14_07010;cds-C4N14_06470;cds-C4N14_06465;cds-C4N14_06460;cds-C4N14_06295;cds-C4N14_06290;cds-C4N14_06285;cds-C4N14_10570;cds-C4N14_10575;cds-C4N14_10580;cds-C4N14_10585;cds-C4N14_10590;cds-C4N14_00030;cds-C4N14_00035;cds-C4N14_00040;cds-C4N14_00045;cds-C4N14_00050;cds-C4N14_01555;cds-C4N14_01560;cds-C4N14_01565;cds-C4N14_01615;cds-C4N14_01620;cds-C4N14_01625;cds-C4N14_03015;cds-C4N14_03010;cds-C4N14_03005;cds-C4N14_03000;cds-C4N14_02950;cds-C4N14_02945</t>
+    <t>cds-C4N14_04685;cds-C4N14_04905;cds-C4N14_04910;cds-C4N14_04915;cds-C4N14_05265;cds-C4N14_05270;cds-C4N14_05275;cds-C4N14_09325;cds-C4N14_09320;cds-C4N14_09165;cds-C4N14_09160;cds-C4N14_09145;cds-C4N14_08950;cds-C4N14_08945;cds-C4N14_08940;cds-C4N14_08900;cds-C4N14_08895;cds-C4N14_08890;cds-C4N14_08885;cds-C4N14_08745;cds-C4N14_08220;cds-C4N14_08215;cds-C4N14_08210;cds-C4N14_07440;cds-C4N14_07015;cds-C4N14_07010;cds-C4N14_06470;cds-C4N14_06465;cds-C4N14_06460;cds-C4N14_06295;cds-C4N14_06290;cds-C4N14_06285;cds-C4N14_10570;cds-C4N14_10575;cds-C4N14_10580;cds-C4N14_10585;cds-C4N14_10590;cds-C4N14_00030;cds-C4N14_00035;cds-C4N14_00040;cds-C4N14_00045;cds-C4N14_00050;cds-C4N14_01555;cds-C4N14_01560;cds-C4N14_01565;cds-C4N14_01615;cds-C4N14_01620;cds-C4N14_01625;cds-C4N14_01630;cds-C4N14_03015;cds-C4N14_03010;cds-C4N14_03005;cds-C4N14_03000;cds-C4N14_02950;cds-C4N14_02945</t>
+  </si>
+  <si>
+    <t>cds-C4N14_04180;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_07660</t>
   </si>
   <si>
     <t>cds-C4N14_02450;cds-C4N14_09835;cds-C4N14_09750;cds-C4N14_06090;cds-C4N14_05480;cds-C4N14_05470;cds-C4N14_05465;cds-C4N14_10740;cds-C4N14_00465;cds-C4N14_01475;cds-C4N14_01505</t>
@@ -611,6 +644,9 @@
     <t>cds-C4N14_06380;cds-C4N14_06270;cds-C4N14_10535</t>
   </si>
   <si>
+    <t>cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_05010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_10260;cds-C4N14_03680</t>
+  </si>
+  <si>
     <t>cds-C4N14_05025;cds-C4N14_05030;cds-C4N14_05045;cds-C4N14_05050;cds-C4N14_10030;cds-C4N14_09815;cds-C4N14_06570;cds-C4N14_06560;cds-C4N14_05720;cds-C4N14_05710;cds-C4N14_05705;cds-C4N14_05700;cds-C4N14_10250;cds-C4N14_10400;cds-C4N14_10615;cds-C4N14_00320;cds-C4N14_00325;cds-C4N14_00660;cds-C4N14_00685;cds-C4N14_00690;cds-C4N14_00695;cds-C4N14_00700;cds-C4N14_00705;cds-C4N14_00710;cds-C4N14_00715;cds-C4N14_00720;cds-C4N14_00725;cds-C4N14_00730;cds-C4N14_00735;cds-C4N14_00740;cds-C4N14_00745;cds-C4N14_00750;cds-C4N14_00755;cds-C4N14_00760;cds-C4N14_00765;cds-C4N14_00770;cds-C4N14_00775;cds-C4N14_00780;cds-C4N14_00785;cds-C4N14_00840;cds-C4N14_00845;cds-C4N14_01475;cds-C4N14_03925;cds-C4N14_03655;cds-C4N14_03125;cds-C4N14_01865;cds-C4N14_01870;cds-C4N14_01875;cds-C4N14_01880;cds-C4N14_01900</t>
   </si>
   <si>
@@ -623,7 +659,13 @@
     <t>cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04135;cds-C4N14_04250;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09755;cds-C4N14_09260;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_03815</t>
   </si>
   <si>
-    <t>cds-C4N14_04325;cds-C4N14_04330;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04990;cds-C4N14_04995;cds-C4N14_09750;cds-C4N14_05830;cds-C4N14_05825;cds-C4N14_10315;cds-C4N14_10320;cds-C4N14_10325;cds-C4N14_10330;cds-C4N14_10420;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03775;cds-C4N14_02185;cds-C4N14_02190;cds-C4N14_02195</t>
+    <t>cds-C4N14_04125;cds-C4N14_10145</t>
+  </si>
+  <si>
+    <t>cds-C4N14_04180;cds-C4N14_05600</t>
+  </si>
+  <si>
+    <t>cds-C4N14_09855;cds-C4N14_09255;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_05430</t>
   </si>
   <si>
     <t>cds-C4N14_02805;cds-C4N14_09925;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07310;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_05815;cds-C4N14_05600;cds-C4N14_10135;cds-C4N14_01515;cds-C4N14_02030</t>
@@ -647,18 +689,21 @@
     <t>cds-C4N14_09985;cds-C4N14_07790;cds-C4N14_07470;cds-C4N14_05745;cds-C4N14_10475;cds-C4N14_01585;cds-C4N14_03545;cds-C4N14_02995</t>
   </si>
   <si>
+    <t>cds-C4N14_04330;cds-C4N14_04490;cds-C4N14_04495;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04990;cds-C4N14_04995;cds-C4N14_09750;cds-C4N14_05830;cds-C4N14_05825;cds-C4N14_10315;cds-C4N14_10320;cds-C4N14_10325;cds-C4N14_10330;cds-C4N14_10420;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03775;cds-C4N14_02185;cds-C4N14_02190;cds-C4N14_02195</t>
+  </si>
+  <si>
     <t>cds-C4N14_05010;cds-C4N14_10105;cds-C4N14_09955;cds-C4N14_09430;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_07595;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_10260;cds-C4N14_10535;cds-C4N14_01055;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01950</t>
   </si>
   <si>
     <t>cds-C4N14_02635;cds-C4N14_09605;cds-C4N14_09330;cds-C4N14_06365;cds-C4N14_06075;cds-C4N14_06005;cds-C4N14_05470;cds-C4N14_10690;cds-C4N14_10695;cds-C4N14_10700;cds-C4N14_10705;cds-C4N14_10710;cds-C4N14_10715;cds-C4N14_10725;cds-C4N14_00125;cds-C4N14_01035</t>
   </si>
   <si>
-    <t>cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_05010;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_09750;cds-C4N14_09135;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06030;cds-C4N14_10260;cds-C4N14_10485;cds-C4N14_10535;cds-C4N14_10550;cds-C4N14_10865;cds-C4N14_00210;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03680;cds-C4N14_03060;cds-C4N14_01950;cds-C4N14_02080</t>
-  </si>
-  <si>
     <t>cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04570;cds-C4N14_04920;cds-C4N14_10085;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_09810;cds-C4N14_08410;cds-C4N14_07025;cds-C4N14_05485;cds-C4N14_00595;cds-C4N14_00605;cds-C4N14_00670;cds-C4N14_03565</t>
   </si>
   <si>
+    <t>cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_05010;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_09750;cds-C4N14_09135;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06030;cds-C4N14_10260;cds-C4N14_10485;cds-C4N14_10535;cds-C4N14_10865;cds-C4N14_00210;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03680;cds-C4N14_03060;cds-C4N14_01950;cds-C4N14_02080</t>
+  </si>
+  <si>
     <t>cds-C4N14_05615;cds-C4N14_00890;cds-C4N14_01020</t>
   </si>
   <si>
@@ -674,16 +719,19 @@
     <t>cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04400;cds-C4N14_09750;cds-C4N14_07070</t>
   </si>
   <si>
+    <t>cds-C4N14_04180;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_05175;cds-C4N14_08525;cds-C4N14_08515;cds-C4N14_07660;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_10470;cds-C4N14_10865;cds-C4N14_02080</t>
+  </si>
+  <si>
     <t>cds-C4N14_06380;cds-C4N14_03080</t>
   </si>
   <si>
-    <t>cds-C4N14_02800;cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04670;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_05010;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09785;cds-C4N14_09750;cds-C4N14_09685;cds-C4N14_09540;cds-C4N14_09430;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08155;cds-C4N14_07565;cds-C4N14_07115;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06885;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06030;cds-C4N14_10135;cds-C4N14_10260;cds-C4N14_10515;cds-C4N14_10535;cds-C4N14_10550;cds-C4N14_10635;cds-C4N14_10865;cds-C4N14_10880;cds-C4N14_00210;cds-C4N14_01055;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03680;cds-C4N14_03060;cds-C4N14_01950;cds-C4N14_02080</t>
-  </si>
-  <si>
     <t>cds-C4N14_02565;cds-C4N14_04955;cds-C4N14_08105;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_06380;cds-C4N14_10860;cds-C4N14_00375</t>
   </si>
   <si>
-    <t>cds-C4N14_04180;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_08525;cds-C4N14_08515;cds-C4N14_07660;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_10470;cds-C4N14_10865;cds-C4N14_10870;cds-C4N14_02080</t>
+    <t>cds-C4N14_02800;cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04670;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_05010;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09785;cds-C4N14_09750;cds-C4N14_09685;cds-C4N14_09540;cds-C4N14_09430;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08155;cds-C4N14_07565;cds-C4N14_07115;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06885;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06030;cds-C4N14_10135;cds-C4N14_10260;cds-C4N14_10515;cds-C4N14_10535;cds-C4N14_10635;cds-C4N14_10865;cds-C4N14_10880;cds-C4N14_00210;cds-C4N14_01055;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03680;cds-C4N14_03060;cds-C4N14_01950;cds-C4N14_02080</t>
+  </si>
+  <si>
+    <t>cds-C4N14_09855;cds-C4N14_09605;cds-C4N14_06365;cds-C4N14_06075;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_00485</t>
   </si>
   <si>
     <t>cds-C4N14_04460;cds-C4N14_09720;cds-C4N14_09520;cds-C4N14_09265;cds-C4N14_09255;cds-C4N14_09250;cds-C4N14_09245;cds-C4N14_08185;cds-C4N14_07655;cds-C4N14_07525;cds-C4N14_07090;cds-C4N14_06495;cds-C4N14_06010;cds-C4N14_00590;cds-C4N14_01040;cds-C4N14_01500;cds-C4N14_03530</t>
@@ -692,16 +740,10 @@
     <t>cds-C4N14_07070;cds-C4N14_06380</t>
   </si>
   <si>
-    <t>cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04135;cds-C4N14_04250;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09260;cds-C4N14_08295;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_10550;cds-C4N14_00210;cds-C4N14_03815</t>
-  </si>
-  <si>
     <t>cds-C4N14_04760;cds-C4N14_09560;cds-C4N14_09150;cds-C4N14_07585;cds-C4N14_05595;cds-C4N14_05505;cds-C4N14_10285;cds-C4N14_10345;cds-C4N14_00445;cds-C4N14_01175;cds-C4N14_03930;cds-C4N14_03915</t>
   </si>
   <si>
-    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_04695;cds-C4N14_05140;cds-C4N14_10005;cds-C4N14_06485;cds-C4N14_06200;cds-C4N14_06120;cds-C4N14_03430</t>
-  </si>
-  <si>
-    <t>cds-C4N14_02800;cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04670;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_09750;cds-C4N14_09135;cds-C4N14_08295;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06270;cds-C4N14_10535;cds-C4N14_10550;cds-C4N14_00210;cds-C4N14_03785;cds-C4N14_03780</t>
+    <t>cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04135;cds-C4N14_04250;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09260;cds-C4N14_08295;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_00210;cds-C4N14_03815</t>
   </si>
   <si>
     <t>cds-C4N14_04180;cds-C4N14_09115;cds-C4N14_06305;cds-C4N14_05790;cds-C4N14_10525;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_03100</t>
@@ -710,7 +752,7 @@
     <t>cds-C4N14_02570;cds-C4N14_02620;cds-C4N14_05260;cds-C4N14_07665;cds-C4N14_06000;cds-C4N14_01175;cds-C4N14_02900</t>
   </si>
   <si>
-    <t>cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_04115;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04180;cds-C4N14_04295;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05175;cds-C4N14_05240;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09430;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08690;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08450;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07640;cds-C4N14_07565;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06380;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06090;cds-C4N14_06030;cds-C4N14_05980;cds-C4N14_05800;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05575;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05470;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10260;cds-C4N14_10485;cds-C4N14_10535;cds-C4N14_10550;cds-C4N14_10740;cds-C4N14_10860;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00210;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00485;cds-C4N14_00890;cds-C4N14_01020;cds-C4N14_01055;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01505;cds-C4N14_03680;cds-C4N14_03490;cds-C4N14_03060;cds-C4N14_01950</t>
+    <t>cds-C4N14_02800;cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04670;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_09750;cds-C4N14_09135;cds-C4N14_08295;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06270;cds-C4N14_10535;cds-C4N14_00210;cds-C4N14_03785;cds-C4N14_03780</t>
   </si>
   <si>
     <t>cds-C4N14_09750;cds-C4N14_03800;cds-C4N14_03790</t>
@@ -731,15 +773,18 @@
     <t>cds-C4N14_10125;cds-C4N14_09770;cds-C4N14_10690;cds-C4N14_10705;cds-C4N14_10715;cds-C4N14_10725</t>
   </si>
   <si>
+    <t>cds-C4N14_09955;cds-C4N14_08295;cds-C4N14_00210</t>
+  </si>
+  <si>
     <t>cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04795;cds-C4N14_04920;cds-C4N14_05240;cds-C4N14_10005;cds-C4N14_09430;cds-C4N14_07815;cds-C4N14_07800;cds-C4N14_07545;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_05980;cds-C4N14_05620;cds-C4N14_10640;cds-C4N14_10835;cds-C4N14_10840;cds-C4N14_00370;cds-C4N14_00585;cds-C4N14_00605;cds-C4N14_03060;cds-C4N14_01845;cds-C4N14_02045</t>
   </si>
   <si>
+    <t>cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_04115;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04180;cds-C4N14_04295;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05175;cds-C4N14_05240;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09430;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08690;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08450;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07640;cds-C4N14_07565;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06380;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06090;cds-C4N14_06030;cds-C4N14_05980;cds-C4N14_05800;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05575;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05470;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10145;cds-C4N14_10260;cds-C4N14_10420;cds-C4N14_10485;cds-C4N14_10535;cds-C4N14_10740;cds-C4N14_10860;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00210;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00485;cds-C4N14_00890;cds-C4N14_01020;cds-C4N14_01055;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01505;cds-C4N14_03680;cds-C4N14_03490;cds-C4N14_03060;cds-C4N14_01950</t>
+  </si>
+  <si>
     <t>cds-C4N14_04955;cds-C4N14_09465;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08155;cds-C4N14_07565;cds-C4N14_07220;cds-C4N14_06625;cds-C4N14_10485</t>
   </si>
   <si>
-    <t>cds-C4N14_07115;cds-C4N14_06885;cds-C4N14_06030;cds-C4N14_01300</t>
-  </si>
-  <si>
     <t>cds-C4N14_05905;cds-C4N14_01035</t>
   </si>
   <si>
@@ -749,18 +794,12 @@
     <t>cds-C4N14_04745;cds-C4N14_06005;cds-C4N14_10725</t>
   </si>
   <si>
-    <t>cds-C4N14_09785;cds-C4N14_06380;cds-C4N14_10420</t>
-  </si>
-  <si>
     <t>cds-C4N14_00245;cds-C4N14_00250</t>
   </si>
   <si>
     <t>cds-C4N14_02800;cds-C4N14_04385;cds-C4N14_04670;cds-C4N14_05180;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_09685;cds-C4N14_08240;cds-C4N14_06915;cds-C4N14_06555;cds-C4N14_06310;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_10310;cds-C4N14_10535;cds-C4N14_00215;cds-C4N14_01395</t>
   </si>
   <si>
-    <t>cds-C4N14_04670;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_08295;cds-C4N14_06275;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_10550;cds-C4N14_00210</t>
-  </si>
-  <si>
     <t>cds-C4N14_09095;cds-C4N14_09090;cds-C4N14_09080;cds-C4N14_07595;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10880;cds-C4N14_00270;cds-C4N14_01480;cds-C4N14_01530;cds-C4N14_01535;cds-C4N14_03445</t>
   </si>
   <si>
@@ -773,15 +812,24 @@
     <t>cds-C4N14_05010;cds-C4N14_10105;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08230;cds-C4N14_06345;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_01390</t>
   </si>
   <si>
+    <t>cds-C4N14_04670;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_08295;cds-C4N14_06275;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_00210</t>
+  </si>
+  <si>
     <t>cds-C4N14_04180;cds-C4N14_05175;cds-C4N14_09115;cds-C4N14_07095;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06380;cds-C4N14_06275;cds-C4N14_06030;cds-C4N14_10490;cds-C4N14_10495;cds-C4N14_10525;cds-C4N14_00370;cds-C4N14_01300;cds-C4N14_01305</t>
   </si>
   <si>
-    <t>cds-C4N14_09255;cds-C4N14_05430</t>
-  </si>
-  <si>
     <t>cds-C4N14_04880;cds-C4N14_09785;cds-C4N14_08920;cds-C4N14_08805</t>
   </si>
   <si>
+    <t>cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_08295;cds-C4N14_00210</t>
+  </si>
+  <si>
+    <t>cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09750;cds-C4N14_08525;cds-C4N14_08240;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_10535;cds-C4N14_10865;cds-C4N14_02080</t>
+  </si>
+  <si>
+    <t>cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_09785;cds-C4N14_06380;cds-C4N14_10420</t>
+  </si>
+  <si>
     <t>cds-C4N14_09955;cds-C4N14_09725;cds-C4N14_08445;cds-C4N14_06875;cds-C4N14_06380</t>
   </si>
   <si>
@@ -794,21 +842,21 @@
     <t>cds-C4N14_04880;cds-C4N14_09955</t>
   </si>
   <si>
-    <t>cds-C4N14_09605;cds-C4N14_06365;cds-C4N14_06075;cds-C4N14_00485</t>
-  </si>
-  <si>
     <t>cds-C4N14_04390;cds-C4N14_04395</t>
   </si>
   <si>
+    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_04695;cds-C4N14_05140;cds-C4N14_10005;cds-C4N14_06485;cds-C4N14_06200;cds-C4N14_06120</t>
+  </si>
+  <si>
     <t>cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03755;cds-C4N14_03750;cds-C4N14_03735;cds-C4N14_03730;cds-C4N14_03725;cds-C4N14_03720</t>
   </si>
   <si>
-    <t>cds-C4N14_09955;cds-C4N14_08295;cds-C4N14_10550;cds-C4N14_00210</t>
-  </si>
-  <si>
     <t>cds-C4N14_02770;cds-C4N14_02775;cds-C4N14_02780;cds-C4N14_04295;cds-C4N14_05135;cds-C4N14_09555;cds-C4N14_07640;cds-C4N14_07560;cds-C4N14_07220;cds-C4N14_05580;cds-C4N14_05575;cds-C4N14_05475;cds-C4N14_01065;cds-C4N14_03615;cds-C4N14_03535;cds-C4N14_03425</t>
   </si>
   <si>
+    <t>cds-C4N14_07115;cds-C4N14_06885;cds-C4N14_06710;cds-C4N14_06030;cds-C4N14_01300</t>
+  </si>
+  <si>
     <t>cds-C4N14_06555;cds-C4N14_06270;cds-C4N14_10535</t>
   </si>
   <si>
@@ -818,9 +866,6 @@
     <t>cds-C4N14_09430;cds-C4N14_08225;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07595;cds-C4N14_06300;cds-C4N14_05800;cds-C4N14_01950</t>
   </si>
   <si>
-    <t>cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_08295;cds-C4N14_10550;cds-C4N14_00210</t>
-  </si>
-  <si>
     <t>cds-C4N14_02370;cds-C4N14_02675;cds-C4N14_05250;cds-C4N14_09550;cds-C4N14_08725;cds-C4N14_08720;cds-C4N14_06785;cds-C4N14_05425;cds-C4N14_10405;cds-C4N14_00220;cds-C4N14_00225;cds-C4N14_00680;cds-C4N14_01180;cds-C4N14_01890</t>
   </si>
   <si>
@@ -830,19 +875,19 @@
     <t>cds-C4N14_04760;cds-C4N14_05260;cds-C4N14_09610;cds-C4N14_09560;cds-C4N14_09270;cds-C4N14_09150;cds-C4N14_08755;cds-C4N14_07585;cds-C4N14_06825;cds-C4N14_05595;cds-C4N14_05460;cds-C4N14_10345;cds-C4N14_00445;cds-C4N14_00470;cds-C4N14_01175;cds-C4N14_03915;cds-C4N14_03745;cds-C4N14_03460;cds-C4N14_02900</t>
   </si>
   <si>
+    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_02625;cds-C4N14_02635;cds-C4N14_02695;cds-C4N14_02740;cds-C4N14_02745;cds-C4N14_02770;cds-C4N14_02775;cds-C4N14_02780;cds-C4N14_02800;cds-C4N14_02805;cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04115;cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04135;cds-C4N14_04160;cds-C4N14_04180;cds-C4N14_04250;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04460;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_04670;cds-C4N14_04695;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_04920;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05140;cds-C4N14_05175;cds-C4N14_05180;cds-C4N14_05185;cds-C4N14_05190;cds-C4N14_05195;cds-C4N14_05200;cds-C4N14_05205;cds-C4N14_05210;cds-C4N14_05215;cds-C4N14_05220;cds-C4N14_05230;cds-C4N14_05240;cds-C4N14_05280;cds-C4N14_10125;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10085;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09985;cds-C4N14_09965;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09810;cds-C4N14_09805;cds-C4N14_09785;cds-C4N14_09770;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09720;cds-C4N14_09685;cds-C4N14_09605;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09520;cds-C4N14_09465;cds-C4N14_09430;cds-C4N14_09330;cds-C4N14_09265;cds-C4N14_09260;cds-C4N14_09255;cds-C4N14_09250;cds-C4N14_09245;cds-C4N14_09135;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08930;cds-C4N14_08920;cds-C4N14_08830;cds-C4N14_08825;cds-C4N14_08805;cds-C4N14_08690;cds-C4N14_08670;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08520;cds-C4N14_08515;cds-C4N14_08450;cds-C4N14_08445;cds-C4N14_08440;cds-C4N14_08435;cds-C4N14_08430;cds-C4N14_08410;cds-C4N14_08400;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08265;cds-C4N14_08260;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08185;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07930;cds-C4N14_07925;cds-C4N14_07920;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07840;cds-C4N14_07815;cds-C4N14_07800;cds-C4N14_07790;cds-C4N14_07725;cds-C4N14_07660;cds-C4N14_07655;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07595;cds-C4N14_07565;cds-C4N14_07560;cds-C4N14_07545;cds-C4N14_07525;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07470;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07310;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_07175;cds-C4N14_07170;cds-C4N14_07165;cds-C4N14_07115;cds-C4N14_07100;cds-C4N14_07095;cds-C4N14_07090;cds-C4N14_07070;cds-C4N14_07025;cds-C4N14_06915;cds-C4N14_06885;cds-C4N14_06875;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06535;cds-C4N14_06495;cds-C4N14_06485;cds-C4N14_06480;cds-C4N14_06430;cds-C4N14_06380;cds-C4N14_06365;cds-C4N14_06345;cds-C4N14_06320;cds-C4N14_06310;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06200;cds-C4N14_06120;cds-C4N14_06090;cds-C4N14_06075;cds-C4N14_06030;cds-C4N14_06010;cds-C4N14_06005;cds-C4N14_05980;cds-C4N14_05815;cds-C4N14_05800;cds-C4N14_05790;cds-C4N14_05745;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05600;cds-C4N14_05580;cds-C4N14_05575;cds-C4N14_05485;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10145;cds-C4N14_10260;cds-C4N14_10310;cds-C4N14_10420;cds-C4N14_10440;cds-C4N14_10455;cds-C4N14_10465;cds-C4N14_10470;cds-C4N14_10475;cds-C4N14_10485;cds-C4N14_10490;cds-C4N14_10495;cds-C4N14_10515;cds-C4N14_10525;cds-C4N14_10535;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10640;cds-C4N14_10690;cds-C4N14_10695;cds-C4N14_10700;cds-C4N14_10705;cds-C4N14_10710;cds-C4N14_10715;cds-C4N14_10725;cds-C4N14_10735;cds-C4N14_10740;cds-C4N14_10800;cds-C4N14_10805;cds-C4N14_10835;cds-C4N14_10840;cds-C4N14_10860;cds-C4N14_10865;cds-C4N14_10870;cds-C4N14_10880;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00125;cds-C4N14_00210;cds-C4N14_00215;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00370;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00585;cds-C4N14_00590;cds-C4N14_00595;cds-C4N14_00605;cds-C4N14_00670;cds-C4N14_00890;cds-C4N14_00950;cds-C4N14_01020;cds-C4N14_01040;cds-C4N14_01055;cds-C4N14_01065;cds-C4N14_01240;cds-C4N14_01245;cds-C4N14_01250;cds-C4N14_01260;cds-C4N14_01265;cds-C4N14_01270;cds-C4N14_01275;cds-C4N14_01280;cds-C4N14_01285;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01330;cds-C4N14_01335;cds-C4N14_01340;cds-C4N14_01345;cds-C4N14_01355;cds-C4N14_01360;cds-C4N14_01365;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01500;cds-C4N14_01505;cds-C4N14_01515;cds-C4N14_01585;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860;cds-C4N14_03840;cds-C4N14_03815;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03755;cds-C4N14_03750;cds-C4N14_03735;cds-C4N14_03730;cds-C4N14_03725;cds-C4N14_03720;cds-C4N14_03680;cds-C4N14_03565;cds-C4N14_03545;cds-C4N14_03530;cds-C4N14_03490;cds-C4N14_03470;cds-C4N14_03425;cds-C4N14_03415;cds-C4N14_03345;cds-C4N14_03065;cds-C4N14_03060;cds-C4N14_02995;cds-C4N14_01845;cds-C4N14_01950;cds-C4N14_02030;cds-C4N14_02045;cds-C4N14_02080;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
+  </si>
+  <si>
+    <t>cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_08295;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_00210</t>
+  </si>
+  <si>
     <t>cds-C4N14_05230;cds-C4N14_05280;cds-C4N14_09965;cds-C4N14_09430;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07595;cds-C4N14_06480;cds-C4N14_06430;cds-C4N14_06300;cds-C4N14_05800;cds-C4N14_10695;cds-C4N14_10800;cds-C4N14_10805;cds-C4N14_00125;cds-C4N14_00270;cds-C4N14_00950;cds-C4N14_03065;cds-C4N14_01950;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
   </si>
   <si>
-    <t>cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_08295;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_10550;cds-C4N14_00210</t>
-  </si>
-  <si>
     <t>cds-C4N14_02440;cds-C4N14_04515;cds-C4N14_09610;cds-C4N14_09270;cds-C4N14_06700;cds-C4N14_06640;cds-C4N14_01175</t>
   </si>
   <si>
     <t>cds-C4N14_03280;cds-C4N14_02960;cds-C4N14_09830;cds-C4N14_05965;cds-FoxI;cds-C4N14_03355;cds-C4N14_09820;cds-C4N14_09825;cds-C4N14_09130;cds-C4N14_09125;cds-C4N14_08200;cds-C4N14_07915;cds-C4N14_07920;cds-C4N14_09840;cds-C4N14_05930;cds-C4N14_09850;cds-C4N14_06785;cds-C4N14_03135;cds-C4N14_03630;cds-C4N14_05935;cds-C4N14_06060;cds-C4N14_05940;cds-C4N14_05955;cds-C4N14_01185;cds-C4N14_09845;cds-C4N14_05960;cds-C4N14_07925;cds-C4N14_05945;cds-C4N14_04025;cds-C4N14_05950;cds-C4N14_06795;cds-C4N14_06065;cds-C4N14_06685;cds-C4N14_06080;cds-C4N14_06790;cds-C4N14_06090;cds-C4N14_06125;cds-C4N14_06105;cds-C4N14_03635;cds-FunR7;cds-C4N14_06085;cds-C4N14_06095;cds-C4N14_07930;cds-C4N14_06120;cds-C4N14_06070;cds-C4N14_06690;cds-C4N14_08460;cds-C4N14_06075;cds-C4N14_08420;cds-C4N14_06100;cds-C4N14_08425;cds-C4N14_08415;cds-C4N14_08440;cds-C4N14_01180;cds-C4N14_09835;cds-C4N14_06110;cds-C4N14_05525;cds-C4N14_04020;cds-C4N14_03890;cds-C4N14_08450;cds-C4N14_08430;cds-C4N14_08455;cds-C4N14_01565;cds-C4N14_01300;cds-C4N14_03940;cds-C4N14_03885;cds-C4N14_06775;cds-C4N14_06115;cds-C4N14_08435;cds-C4N14_03895;cds-C4N14_03905;cds-C4N14_08445;cds-C4N14_03900;cds-C4N14_01295;cds-C4N14_10275;cds-C4N14_06800;cds-C4N14_03935;cds-C4N14_03520;cds-C4N14_06780;cds-C4N14_03910;cds-C4N14_03535;cds-C4N14_03130;cds-C4N14_03930;cds-C4N14_03925;cds-C4N14_03915;cds-C4N14_10265;cds-C4N14_10260;cds-C4N14_07010;cds-C4N14_07005;cds-C4N14_03530;cds-C4N14_04030;cds-C4N14_03920;cds-C4N14_10255;cds-C4N14_03880;cds-C4N14_03525;cds-C4N14_10270;cds-C4N14_07030;cds-C4N14_05180;cds-C4N14_08750;cds-C4N14_08740;cds-C4N14_07015;cds-C4N14_07025;cds-C4N14_08730;cds-C4N14_05250;cds-C4N14_07020;cds-C4N14_05230;cds-C4N14_07035;cds-C4N14_05245;cds-C4N14_05240;cds-C4N14_05420;cds-C4N14_08745;cds-C4N14_08725;cds-C4N14_08735;cds-C4N14_05215;cds-C4N14_05235;cds-C4N14_05190;cds-C4N14_05220;cds-C4N14_08720;cds-C4N14_05205;cds-C4N14_05200;cds-C4N14_05185;cds-C4N14_05225;cds-C4N14_05195;cds-C4N14_05210;cds-C4N14_07040</t>
-  </si>
-  <si>
-    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_02625;cds-C4N14_02635;cds-C4N14_02695;cds-C4N14_02740;cds-C4N14_02745;cds-C4N14_02770;cds-C4N14_02775;cds-C4N14_02780;cds-C4N14_02800;cds-C4N14_02805;cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04115;cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04135;cds-C4N14_04160;cds-C4N14_04180;cds-C4N14_04250;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04460;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_04670;cds-C4N14_04695;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_04920;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05140;cds-C4N14_05175;cds-C4N14_05180;cds-C4N14_05185;cds-C4N14_05190;cds-C4N14_05195;cds-C4N14_05200;cds-C4N14_05205;cds-C4N14_05210;cds-C4N14_05215;cds-C4N14_05220;cds-C4N14_05230;cds-C4N14_05240;cds-C4N14_05280;cds-C4N14_10125;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10085;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09985;cds-C4N14_09965;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09810;cds-C4N14_09805;cds-C4N14_09785;cds-C4N14_09770;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09720;cds-C4N14_09685;cds-C4N14_09605;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09520;cds-C4N14_09465;cds-C4N14_09430;cds-C4N14_09330;cds-C4N14_09265;cds-C4N14_09260;cds-C4N14_09255;cds-C4N14_09250;cds-C4N14_09245;cds-C4N14_09135;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08930;cds-C4N14_08920;cds-C4N14_08830;cds-C4N14_08825;cds-C4N14_08805;cds-C4N14_08690;cds-C4N14_08670;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08520;cds-C4N14_08515;cds-C4N14_08450;cds-C4N14_08445;cds-C4N14_08440;cds-C4N14_08435;cds-C4N14_08430;cds-C4N14_08410;cds-C4N14_08400;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08265;cds-C4N14_08260;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08185;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07930;cds-C4N14_07925;cds-C4N14_07920;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07840;cds-C4N14_07815;cds-C4N14_07800;cds-C4N14_07790;cds-C4N14_07725;cds-C4N14_07660;cds-C4N14_07655;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07595;cds-C4N14_07565;cds-C4N14_07560;cds-C4N14_07545;cds-C4N14_07525;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07470;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07310;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_07175;cds-C4N14_07170;cds-C4N14_07165;cds-C4N14_07115;cds-C4N14_07100;cds-C4N14_07095;cds-C4N14_07090;cds-C4N14_07070;cds-C4N14_07025;cds-C4N14_06915;cds-C4N14_06885;cds-C4N14_06875;cds-C4N14_06680;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06535;cds-C4N14_06495;cds-C4N14_06485;cds-C4N14_06480;cds-C4N14_06430;cds-C4N14_06380;cds-C4N14_06365;cds-C4N14_06345;cds-C4N14_06320;cds-C4N14_06310;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06200;cds-C4N14_06120;cds-C4N14_06090;cds-C4N14_06075;cds-C4N14_06030;cds-C4N14_06010;cds-C4N14_06005;cds-C4N14_05980;cds-C4N14_05815;cds-C4N14_05800;cds-C4N14_05790;cds-C4N14_05745;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05600;cds-C4N14_05580;cds-C4N14_05575;cds-C4N14_05485;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10145;cds-C4N14_10260;cds-C4N14_10310;cds-C4N14_10420;cds-C4N14_10440;cds-C4N14_10455;cds-C4N14_10465;cds-C4N14_10470;cds-C4N14_10475;cds-C4N14_10485;cds-C4N14_10490;cds-C4N14_10495;cds-C4N14_10515;cds-C4N14_10525;cds-C4N14_10535;cds-C4N14_10550;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10640;cds-C4N14_10690;cds-C4N14_10695;cds-C4N14_10700;cds-C4N14_10705;cds-C4N14_10710;cds-C4N14_10715;cds-C4N14_10725;cds-C4N14_10735;cds-C4N14_10740;cds-C4N14_10800;cds-C4N14_10805;cds-C4N14_10835;cds-C4N14_10840;cds-C4N14_10860;cds-C4N14_10865;cds-C4N14_10870;cds-C4N14_10880;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00125;cds-C4N14_00210;cds-C4N14_00215;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00370;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00585;cds-C4N14_00590;cds-C4N14_00595;cds-C4N14_00605;cds-C4N14_00670;cds-C4N14_00890;cds-C4N14_00950;cds-C4N14_01020;cds-C4N14_01040;cds-C4N14_01055;cds-C4N14_01065;cds-C4N14_01240;cds-C4N14_01245;cds-C4N14_01250;cds-C4N14_01260;cds-C4N14_01265;cds-C4N14_01270;cds-C4N14_01275;cds-C4N14_01280;cds-C4N14_01285;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01330;cds-C4N14_01335;cds-C4N14_01340;cds-C4N14_01345;cds-C4N14_01355;cds-C4N14_01360;cds-C4N14_01365;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01500;cds-C4N14_01505;cds-C4N14_01515;cds-C4N14_01585;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860;cds-C4N14_03840;cds-C4N14_03815;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03755;cds-C4N14_03750;cds-C4N14_03735;cds-C4N14_03730;cds-C4N14_03725;cds-C4N14_03720;cds-C4N14_03680;cds-C4N14_03565;cds-C4N14_03545;cds-C4N14_03530;cds-C4N14_03490;cds-C4N14_03470;cds-C4N14_03430;cds-C4N14_03425;cds-C4N14_03415;cds-C4N14_03345;cds-C4N14_03065;cds-C4N14_03060;cds-C4N14_02995;cds-C4N14_01845;cds-C4N14_01950;cds-C4N14_02030;cds-C4N14_02045;cds-C4N14_02080;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
   </si>
   <si>
     <t>cds-C4N14_05715;cds-C4N14_01840;cds-C4N14_01855;cds-C4N14_01860</t>
@@ -931,28 +976,28 @@
         <v>8</v>
       </c>
       <c r="B2" t="n">
-        <v>47.0</v>
+        <v>46.0</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D2" t="n">
-        <v>1.327956096396983E-4</v>
+        <v>1.9305232376505503E-4</v>
       </c>
       <c r="E2" t="n">
-        <v>0.011951604867572846</v>
+        <v>0.014266963249188485</v>
       </c>
       <c r="F2" t="n">
-        <v>4.972688127820746E-6</v>
+        <v>5.006514497554748E-6</v>
       </c>
       <c r="G2" t="n">
-        <v>6.39345616434096E-5</v>
+        <v>6.794555389538586E-5</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I2" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3">
@@ -963,25 +1008,25 @@
         <v>11.0</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D3" t="n">
         <v>4.6481298363679717E-4</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01790341115355329</v>
+        <v>0.014266963249188485</v>
       </c>
       <c r="F3" t="n">
         <v>8.80765897457267E-5</v>
       </c>
       <c r="G3" t="n">
-        <v>4.172048987955475E-4</v>
+        <v>4.522320237202064E-4</v>
       </c>
       <c r="H3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
@@ -989,28 +1034,28 @@
         <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>54.0</v>
+        <v>55.0</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D4" t="n">
-        <v>5.967803717851096E-4</v>
+        <v>5.932284198501638E-4</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01790341115355329</v>
+        <v>0.014266963249188485</v>
       </c>
       <c r="F4" t="n">
-        <v>8.095063126723994E-5</v>
+        <v>9.044640474404128E-5</v>
       </c>
       <c r="G4" t="n">
-        <v>4.0475315633619973E-4</v>
+        <v>4.522320237202064E-4</v>
       </c>
       <c r="H4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I4" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5">
@@ -1018,28 +1063,28 @@
         <v>11</v>
       </c>
       <c r="B5" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0013865624612749497</v>
+        <v>6.007142420710941E-4</v>
       </c>
       <c r="E5" t="n">
-        <v>0.031197655378686368</v>
+        <v>0.014266963249188485</v>
       </c>
       <c r="F5" t="n">
-        <v>5.145141809960637E-4</v>
+        <v>0.03568074175695612</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0017642321280374655</v>
+        <v>0.06277167531316354</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="I5" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6">
@@ -1047,28 +1092,28 @@
         <v>12</v>
       </c>
       <c r="B6" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0018505071562717192</v>
+        <v>0.0013865624612749497</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03330912881289095</v>
+        <v>0.026344686764224044</v>
       </c>
       <c r="F6" t="n">
-        <v>0.16432213649416832</v>
+        <v>5.145141809960637E-4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2207312281264948</v>
+        <v>0.0018622450240395468</v>
       </c>
       <c r="H6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="I6" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7">
@@ -1076,28 +1121,28 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>23.0</v>
+        <v>5.0</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0036032359003662457</v>
+        <v>0.0018505071562717192</v>
       </c>
       <c r="E7" t="n">
-        <v>0.05237256729031776</v>
+        <v>0.02929969664096889</v>
       </c>
       <c r="F7" t="n">
-        <v>7.580369525499422E-9</v>
+        <v>0.16432213649416832</v>
       </c>
       <c r="G7" t="n">
-        <v>6.579194887258101E-7</v>
+        <v>0.23000941479071177</v>
       </c>
       <c r="H7" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8">
@@ -1105,28 +1150,28 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>6.0</v>
+        <v>23.0</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0040734219003580475</v>
+        <v>0.0036032359003662457</v>
       </c>
       <c r="E8" t="n">
-        <v>0.05237256729031776</v>
+        <v>0.048371885066751816</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2876679610961665</v>
+        <v>7.580369525499422E-9</v>
       </c>
       <c r="G8" t="n">
-        <v>0.37521907969065194</v>
+        <v>6.944705714327996E-7</v>
       </c>
       <c r="H8" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I8" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9">
@@ -1134,28 +1179,28 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D9" t="n">
-        <v>0.006000448733531908</v>
+        <v>0.0040734219003580475</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0657111149330416</v>
+        <v>0.048371885066751816</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0012611576549447004</v>
+        <v>0.2876679610961665</v>
       </c>
       <c r="G9" t="n">
-        <v>0.00343952087712191</v>
+        <v>0.3743624151251482</v>
       </c>
       <c r="H9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I9" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10">
@@ -1163,28 +1208,28 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>8.0</v>
+        <v>11.0</v>
       </c>
       <c r="C10" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D10" t="n">
-        <v>0.006897146434331699</v>
+        <v>0.006000448733531908</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0657111149330416</v>
+        <v>0.06305612039029246</v>
       </c>
       <c r="F10" t="n">
-        <v>0.011824355306023607</v>
+        <v>0.0012611576549447004</v>
       </c>
       <c r="G10" t="n">
-        <v>0.021718203623308667</v>
+        <v>0.00363060537029535</v>
       </c>
       <c r="H10" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="I10" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11">
@@ -1192,28 +1237,28 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>3.0</v>
+        <v>8.0</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007301234992560178</v>
+        <v>0.006897146434331699</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0657111149330416</v>
+        <v>0.06305612039029246</v>
       </c>
       <c r="F11" t="n">
-        <v>0.32173671764122447</v>
+        <v>0.011824355306023607</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4136614941101458</v>
+        <v>0.02246627508144485</v>
       </c>
       <c r="H11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I11" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12">
@@ -1221,28 +1266,28 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>50.0</v>
+        <v>3.0</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D12" t="n">
-        <v>0.009893677159133783</v>
+        <v>0.007301234992560178</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08094826766564003</v>
+        <v>0.06305612039029246</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001655156663460608</v>
+        <v>0.32173671764122447</v>
       </c>
       <c r="G12" t="n">
-        <v>0.004193782284304708</v>
+        <v>0.413040380755626</v>
       </c>
       <c r="H12" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I12" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13">
@@ -1250,28 +1295,28 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D13" t="n">
-        <v>0.012352417003048052</v>
+        <v>0.008718908250071029</v>
       </c>
       <c r="E13" t="n">
-        <v>0.09264312752286039</v>
+        <v>0.06902469031306231</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5392675693151093</v>
+        <v>0.00297800622106015</v>
       </c>
       <c r="G13" t="n">
-        <v>0.638606332083682</v>
+        <v>0.007577239030222883</v>
       </c>
       <c r="H13" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I13" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14">
@@ -1279,28 +1324,28 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>9.0</v>
+        <v>50.0</v>
       </c>
       <c r="C14" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D14" t="n">
-        <v>0.014450692875180075</v>
+        <v>0.009893677159133783</v>
       </c>
       <c r="E14" t="n">
-        <v>0.09603500384505628</v>
+        <v>0.07229994847059303</v>
       </c>
       <c r="F14" t="n">
-        <v>0.006192850176363569</v>
+        <v>0.001655156663460608</v>
       </c>
       <c r="G14" t="n">
-        <v>0.011858649273887686</v>
+        <v>0.004553249337245112</v>
       </c>
       <c r="H14" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I14" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15">
@@ -1308,28 +1353,28 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>11.0</v>
+        <v>4.0</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D15" t="n">
-        <v>0.015023357915952096</v>
+        <v>0.012352417003048052</v>
       </c>
       <c r="E15" t="n">
-        <v>0.09603500384505628</v>
+        <v>0.08381997252068321</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0031904164337780557</v>
+        <v>0.5392675693151093</v>
       </c>
       <c r="G15" t="n">
-        <v>0.007178436976000626</v>
+        <v>0.6247612083528705</v>
       </c>
       <c r="H15" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I15" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16">
@@ -1337,28 +1382,28 @@
         <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>20.0</v>
+        <v>9.0</v>
       </c>
       <c r="C16" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D16" t="n">
-        <v>0.016005833974176046</v>
+        <v>0.014450692875180075</v>
       </c>
       <c r="E16" t="n">
-        <v>0.09603500384505628</v>
+        <v>0.08920118762596557</v>
       </c>
       <c r="F16" t="n">
-        <v>4.3526826541790976E-4</v>
+        <v>0.006192850176363569</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0015669657555044752</v>
+        <v>0.012256682640719566</v>
       </c>
       <c r="H16" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I16" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17">
@@ -1366,28 +1411,28 @@
         <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>29.0</v>
+        <v>11.0</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02503705621679355</v>
+        <v>0.015023357915952096</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1344504138018776</v>
+        <v>0.08920118762596557</v>
       </c>
       <c r="F17" t="n">
-        <v>1.308492836484247E-4</v>
+        <v>0.0031904164337780557</v>
       </c>
       <c r="G17" t="n">
-        <v>5.839946488588462E-4</v>
+        <v>0.007577239030222883</v>
       </c>
       <c r="H17" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I17" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18">
@@ -1395,28 +1440,28 @@
         <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>20.0</v>
+        <v>2.0</v>
       </c>
       <c r="C18" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D18" t="n">
-        <v>0.025396189273687995</v>
+        <v>0.017255613660226647</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1344504138018776</v>
+        <v>0.09642842927773713</v>
       </c>
       <c r="F18" t="n">
-        <v>2.9187664488997016E-5</v>
+        <v>0.4452123980332721</v>
       </c>
       <c r="G18" t="n">
-        <v>2.3880816400088467E-4</v>
+        <v>0.542245869399498</v>
       </c>
       <c r="H18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I18" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19">
@@ -1424,28 +1469,28 @@
         <v>25</v>
       </c>
       <c r="B19" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C19" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D19" t="n">
-        <v>0.027210226264595308</v>
+        <v>0.02007907714028171</v>
       </c>
       <c r="E19" t="n">
-        <v>0.13605113132297653</v>
+        <v>0.10136226393379862</v>
       </c>
       <c r="F19" t="n">
-        <v>0.7444139550455495</v>
+        <v>1.0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8271266167172773</v>
+        <v>1.0</v>
       </c>
       <c r="H19" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I19" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
@@ -1453,28 +1498,28 @@
         <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="C20" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0336039513419453</v>
+        <v>0.020272452786759723</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1515842345991075</v>
+        <v>0.10136226393379862</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0010495664805774787</v>
+        <v>0.519977148839511</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0029519057266241587</v>
+        <v>0.6174728642469193</v>
       </c>
       <c r="H20" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21">
@@ -1482,28 +1527,28 @@
         <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>18.0</v>
+        <v>29.0</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D21" t="n">
-        <v>0.033685385466468334</v>
+        <v>0.02503705621679355</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1515842345991075</v>
+        <v>0.11488752290477902</v>
       </c>
       <c r="F21" t="n">
-        <v>7.985014289769096E-5</v>
+        <v>1.308492836484247E-4</v>
       </c>
       <c r="G21" t="n">
-        <v>4.0475315633619973E-4</v>
+        <v>6.16438796017671E-4</v>
       </c>
       <c r="H21" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22">
@@ -1511,28 +1556,28 @@
         <v>28</v>
       </c>
       <c r="B22" t="n">
-        <v>7.0</v>
+        <v>20.0</v>
       </c>
       <c r="C22" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D22" t="n">
-        <v>0.04888836124892412</v>
+        <v>0.025396189273687995</v>
       </c>
       <c r="E22" t="n">
-        <v>0.20385437894477154</v>
+        <v>0.11488752290477902</v>
       </c>
       <c r="F22" t="n">
-        <v>0.056054607586959716</v>
+        <v>2.9187664488997016E-5</v>
       </c>
       <c r="G22" t="n">
-        <v>0.08850727513730482</v>
+        <v>2.5207528422315607E-4</v>
       </c>
       <c r="H22" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I22" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
@@ -1540,28 +1585,28 @@
         <v>29</v>
       </c>
       <c r="B23" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D23" t="n">
-        <v>0.049831070408721936</v>
+        <v>0.027210226264595308</v>
       </c>
       <c r="E23" t="n">
-        <v>0.20385437894477154</v>
+        <v>0.11749870432438883</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1420037056857792</v>
+        <v>0.7444139550455495</v>
       </c>
       <c r="G23" t="n">
-        <v>0.19969271112062698</v>
+        <v>0.8036287014696274</v>
       </c>
       <c r="H23" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I23" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
@@ -1569,28 +1614,28 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D24" t="n">
-        <v>0.06352375575936957</v>
+        <v>0.0336039513419453</v>
       </c>
       <c r="E24" t="n">
-        <v>0.24857121818883746</v>
+        <v>0.13333798413810383</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0025008080979696413</v>
+        <v>0.0010495664805774787</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00608304672479102</v>
+        <v>0.00311590048921439</v>
       </c>
       <c r="H24" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I24" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
@@ -1598,28 +1643,28 @@
         <v>31</v>
       </c>
       <c r="B25" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="C25" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D25" t="n">
-        <v>0.07138807287957757</v>
+        <v>0.033685385466468334</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2628612724823035</v>
+        <v>0.13333798413810383</v>
       </c>
       <c r="F25" t="n">
-        <v>1.0088483645528426E-6</v>
+        <v>7.985014289769096E-5</v>
       </c>
       <c r="G25" t="n">
-        <v>2.9324772359753206E-5</v>
+        <v>4.4622138678121416E-4</v>
       </c>
       <c r="H25" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I25" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26">
@@ -1627,28 +1672,28 @@
         <v>32</v>
       </c>
       <c r="B26" t="n">
-        <v>41.0</v>
+        <v>7.0</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D26" t="n">
-        <v>0.08597902112030398</v>
+        <v>0.04888836124892412</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2628612724823035</v>
+        <v>0.18207506495494552</v>
       </c>
       <c r="F26" t="n">
-        <v>5.912564926301796E-4</v>
+        <v>0.056054607586959716</v>
       </c>
       <c r="G26" t="n">
-        <v>0.001900467297739863</v>
+        <v>0.09025741899595208</v>
       </c>
       <c r="H26" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I26" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27">
@@ -1656,28 +1701,28 @@
         <v>33</v>
       </c>
       <c r="B27" t="n">
-        <v>21.0</v>
+        <v>8.0</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08767084724243142</v>
+        <v>0.049831070408721936</v>
       </c>
       <c r="E27" t="n">
-        <v>0.2628612724823035</v>
+        <v>0.18207506495494552</v>
       </c>
       <c r="F27" t="n">
-        <v>1.462043308279578E-8</v>
+        <v>0.1420037056857792</v>
       </c>
       <c r="G27" t="n">
-        <v>6.579194887258101E-7</v>
+        <v>0.2107867506273285</v>
       </c>
       <c r="H27" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I27" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28">
@@ -1685,28 +1730,28 @@
         <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>3.0</v>
+        <v>21.0</v>
       </c>
       <c r="C28" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D28" t="n">
-        <v>0.08815015921583769</v>
+        <v>0.052867033871709476</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2628612724823035</v>
+        <v>0.18601363769675558</v>
       </c>
       <c r="F28" t="n">
-        <v>0.5062792612321221</v>
+        <v>4.340706796983132E-4</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6157450474444728</v>
+        <v>0.0016494685828535901</v>
       </c>
       <c r="H28" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I28" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29">
@@ -1714,28 +1759,28 @@
         <v>35</v>
       </c>
       <c r="B29" t="n">
-        <v>11.0</v>
+        <v>22.0</v>
       </c>
       <c r="C29" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0896682703591252</v>
+        <v>0.06352375575936957</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2628612724823035</v>
+        <v>0.21552702846928962</v>
       </c>
       <c r="F29" t="n">
-        <v>0.005548782356618453</v>
+        <v>0.0025008080979696413</v>
       </c>
       <c r="G29" t="n">
-        <v>0.011097564713236906</v>
+        <v>0.006599354702975442</v>
       </c>
       <c r="H29" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I29" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30">
@@ -1743,28 +1788,28 @@
         <v>36</v>
       </c>
       <c r="B30" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D30" t="n">
-        <v>0.09213419344077106</v>
+        <v>0.07138807287957757</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2628612724823035</v>
+        <v>0.23385748012275412</v>
       </c>
       <c r="F30" t="n">
-        <v>0.85221961605205</v>
+        <v>1.0088483645528426E-6</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9173148370334687</v>
+        <v>2.5989267278812016E-5</v>
       </c>
       <c r="H30" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I30" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31">
@@ -1772,28 +1817,28 @@
         <v>37</v>
       </c>
       <c r="B31" t="n">
-        <v>10.0</v>
+        <v>21.0</v>
       </c>
       <c r="C31" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D31" t="n">
-        <v>0.09463084396830687</v>
+        <v>0.08767084724243142</v>
       </c>
       <c r="E31" t="n">
-        <v>0.2628612724823035</v>
+        <v>0.23834561041978686</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0046731704702894766</v>
+        <v>1.462043308279578E-8</v>
       </c>
       <c r="G31" t="n">
-        <v>0.009781054472698905</v>
+        <v>6.944705714327996E-7</v>
       </c>
       <c r="H31" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I31" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32">
@@ -1801,28 +1846,28 @@
         <v>38</v>
       </c>
       <c r="B32" t="n">
-        <v>6.0</v>
+        <v>40.0</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09549952814270474</v>
+        <v>0.08797491083459541</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2628612724823035</v>
+        <v>0.23834561041978686</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09507426490362246</v>
+        <v>5.815913042627115E-4</v>
       </c>
       <c r="G32" t="n">
-        <v>0.14068760743989195</v>
+        <v>0.0019732562108913426</v>
       </c>
       <c r="H32" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I32" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33">
@@ -1830,28 +1875,28 @@
         <v>39</v>
       </c>
       <c r="B33" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D33" t="n">
-        <v>0.09730414031300029</v>
+        <v>0.08815015921583769</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2628612724823035</v>
+        <v>0.23834561041978686</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5803662854069402</v>
+        <v>0.5062792612321221</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6696534062387771</v>
+        <v>0.6088168331272354</v>
       </c>
       <c r="H33" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I33" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34">
@@ -1859,28 +1904,28 @@
         <v>40</v>
       </c>
       <c r="B34" t="n">
-        <v>70.0</v>
+        <v>11.0</v>
       </c>
       <c r="C34" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D34" t="n">
-        <v>0.09847853552510905</v>
+        <v>0.0896682703591252</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2628612724823035</v>
+        <v>0.23834561041978686</v>
       </c>
       <c r="F34" t="n">
-        <v>7.545178332620987E-5</v>
+        <v>0.005548782356618453</v>
       </c>
       <c r="G34" t="n">
-        <v>4.0475315633619973E-4</v>
+        <v>0.011459441823451152</v>
       </c>
       <c r="H34" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I34" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35">
@@ -1888,28 +1933,28 @@
         <v>41</v>
       </c>
       <c r="B35" t="n">
-        <v>8.0</v>
+        <v>3.0</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09930314738220355</v>
+        <v>0.09213419344077106</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2628612724823035</v>
+        <v>0.23834561041978686</v>
       </c>
       <c r="F35" t="n">
-        <v>0.019654233756686634</v>
+        <v>0.85221961605205</v>
       </c>
       <c r="G35" t="n">
-        <v>0.034683941923564644</v>
+        <v>0.9096726238757836</v>
       </c>
       <c r="H35" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I35" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36">
@@ -1917,28 +1962,28 @@
         <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>12.0</v>
+        <v>10.0</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D36" t="n">
-        <v>0.11710923499562781</v>
+        <v>0.09463084396830687</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3011380328459001</v>
+        <v>0.23834561041978686</v>
       </c>
       <c r="F36" t="n">
-        <v>2.758448478757718E-6</v>
+        <v>0.0046731704702894766</v>
       </c>
       <c r="G36" t="n">
-        <v>4.1376727181365773E-5</v>
+        <v>0.010089799879034097</v>
       </c>
       <c r="H36" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I36" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37">
@@ -1946,28 +1991,28 @@
         <v>43</v>
       </c>
       <c r="B37" t="n">
-        <v>17.0</v>
+        <v>6.0</v>
       </c>
       <c r="C37" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1213371747962585</v>
+        <v>0.09549952814270474</v>
       </c>
       <c r="E37" t="n">
-        <v>0.30334293699064624</v>
+        <v>0.23834561041978686</v>
       </c>
       <c r="F37" t="n">
-        <v>0.04408329737825797</v>
+        <v>0.09507426490362246</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07084815650077174</v>
+        <v>0.14567830912651827</v>
       </c>
       <c r="H37" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I37" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38">
@@ -1975,28 +2020,28 @@
         <v>44</v>
       </c>
       <c r="B38" t="n">
-        <v>2.0</v>
+        <v>12.0</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1327042343096611</v>
+        <v>0.09626185793110886</v>
       </c>
       <c r="E38" t="n">
-        <v>0.3227940834559324</v>
+        <v>0.23834561041978686</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5726564447224629</v>
+        <v>4.71576488290041E-6</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6693387016236579</v>
+        <v>6.794555389538586E-5</v>
       </c>
       <c r="H38" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="I38" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39">
@@ -2004,28 +2049,28 @@
         <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>15.0</v>
+        <v>2.0</v>
       </c>
       <c r="C39" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1459810456954056</v>
+        <v>0.09730414031300029</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3457445819101711</v>
+        <v>0.23834561041978686</v>
       </c>
       <c r="F39" t="n">
-        <v>2.1725519028379977E-5</v>
+        <v>0.5803662854069402</v>
       </c>
       <c r="G39" t="n">
-        <v>1.955296712554198E-4</v>
+        <v>0.6563666323054681</v>
       </c>
       <c r="H39" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="I39" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40">
@@ -2033,28 +2078,28 @@
         <v>46</v>
       </c>
       <c r="B40" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="C40" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D40" t="n">
-        <v>0.16107088606126357</v>
+        <v>0.09930314738220355</v>
       </c>
       <c r="E40" t="n">
-        <v>0.37170204475676205</v>
+        <v>0.23834561041978686</v>
       </c>
       <c r="F40" t="n">
-        <v>9.265942635289244E-4</v>
+        <v>0.019654233756686634</v>
       </c>
       <c r="G40" t="n">
-        <v>0.002779782790586773</v>
+        <v>0.03590677320933135</v>
       </c>
       <c r="H40" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I40" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41">
@@ -2062,28 +2107,28 @@
         <v>47</v>
       </c>
       <c r="B41" t="n">
-        <v>10.0</v>
+        <v>69.0</v>
       </c>
       <c r="C41" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1726893000375693</v>
+        <v>0.10035604649254183</v>
       </c>
       <c r="E41" t="n">
-        <v>0.38855092508453093</v>
+        <v>0.23834561041978686</v>
       </c>
       <c r="F41" t="n">
-        <v>0.038224190140879084</v>
+        <v>7.379831265130468E-5</v>
       </c>
       <c r="G41" t="n">
-        <v>0.06370698356813181</v>
+        <v>4.3817748136712155E-4</v>
       </c>
       <c r="H41" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I41" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42">
@@ -2091,28 +2136,28 @@
         <v>48</v>
       </c>
       <c r="B42" t="n">
-        <v>21.0</v>
+        <v>7.0</v>
       </c>
       <c r="C42" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1967797880391979</v>
+        <v>0.11628198649648566</v>
       </c>
       <c r="E42" t="n">
-        <v>0.4319556322811662</v>
+        <v>0.2694338711503936</v>
       </c>
       <c r="F42" t="n">
-        <v>1.8178777673847462E-6</v>
+        <v>0.19659336556200968</v>
       </c>
       <c r="G42" t="n">
-        <v>3.272179981292543E-5</v>
+        <v>0.266805281834156</v>
       </c>
       <c r="H42" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I42" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43">
@@ -2120,28 +2165,28 @@
         <v>49</v>
       </c>
       <c r="B43" t="n">
-        <v>8.0</v>
+        <v>17.0</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D43" t="n">
-        <v>0.205787481099212</v>
+        <v>0.1213371747962585</v>
       </c>
       <c r="E43" t="n">
-        <v>0.4324248406891694</v>
+        <v>0.27445313346772754</v>
       </c>
       <c r="F43" t="n">
-        <v>7.94555127721376E-4</v>
+        <v>0.04408329737825797</v>
       </c>
       <c r="G43" t="n">
-        <v>0.00246586074120427</v>
+        <v>0.07478416519525904</v>
       </c>
       <c r="H43" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="I43" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44">
@@ -2149,28 +2194,28 @@
         <v>50</v>
       </c>
       <c r="B44" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="C44" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D44" t="n">
-        <v>0.20660297944038092</v>
+        <v>0.1327042343096611</v>
       </c>
       <c r="E44" t="n">
-        <v>0.4324248406891694</v>
+        <v>0.29318377347483265</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5303786035805569</v>
+        <v>0.5726564447224629</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6364543242966683</v>
+        <v>0.6554501475739033</v>
       </c>
       <c r="H44" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I44" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45">
@@ -2178,28 +2223,28 @@
         <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>116.0</v>
+        <v>12.0</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D45" t="n">
-        <v>0.22405063586767182</v>
+        <v>0.16107088606126357</v>
       </c>
       <c r="E45" t="n">
-        <v>0.45699117151621205</v>
+        <v>0.3477666858140918</v>
       </c>
       <c r="F45" t="n">
-        <v>7.175657069338957E-5</v>
+        <v>9.265942635289244E-4</v>
       </c>
       <c r="G45" t="n">
-        <v>4.0475315633619973E-4</v>
+        <v>0.0029342151678415935</v>
       </c>
       <c r="H45" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I45" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46">
@@ -2207,28 +2252,28 @@
         <v>52</v>
       </c>
       <c r="B46" t="n">
-        <v>3.0</v>
+        <v>14.0</v>
       </c>
       <c r="C46" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D46" t="n">
-        <v>0.22849558575810602</v>
+        <v>0.165073803242256</v>
       </c>
       <c r="E46" t="n">
-        <v>0.45699117151621205</v>
+        <v>0.348489140178096</v>
       </c>
       <c r="F46" t="n">
-        <v>1.0</v>
+        <v>2.3049558290097345E-5</v>
       </c>
       <c r="G46" t="n">
-        <v>1.0</v>
+        <v>2.1897080375592477E-4</v>
       </c>
       <c r="H46" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I46" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47">
@@ -2236,28 +2281,28 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>37.0</v>
+        <v>8.0</v>
       </c>
       <c r="C47" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D47" t="n">
-        <v>0.23543158178368312</v>
+        <v>0.205787481099212</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4606270078376409</v>
+        <v>0.41344180537972264</v>
       </c>
       <c r="F47" t="n">
-        <v>5.292696384112396E-4</v>
+        <v>7.94555127721376E-4</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0017642321280374655</v>
+        <v>0.0026028530046045078</v>
       </c>
       <c r="H47" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I47" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48">
@@ -2265,28 +2310,28 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>9.0</v>
+        <v>7.0</v>
       </c>
       <c r="C48" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D48" t="n">
-        <v>0.26526646315716285</v>
+        <v>0.20660297944038092</v>
       </c>
       <c r="E48" t="n">
-        <v>0.5079570571094608</v>
+        <v>0.41344180537972264</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1452720581863412</v>
+        <v>0.5303786035805569</v>
       </c>
       <c r="G48" t="n">
-        <v>0.20114592671954934</v>
+        <v>0.6220489795080606</v>
       </c>
       <c r="H48" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I48" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49">
@@ -2294,28 +2339,28 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="C49" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D49" t="n">
-        <v>0.2744553923507344</v>
+        <v>0.20889691219185985</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5097715550142856</v>
+        <v>0.41344180537972264</v>
       </c>
       <c r="F49" t="n">
-        <v>0.0031052611070105365</v>
+        <v>1.3678561725690536E-6</v>
       </c>
       <c r="G49" t="n">
-        <v>0.007178436976000626</v>
+        <v>2.5989267278812016E-5</v>
       </c>
       <c r="H49" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I49" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50">
@@ -2323,28 +2368,28 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D50" t="n">
-        <v>0.27762075594902974</v>
+        <v>0.22849558575810602</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5097715550142856</v>
+        <v>0.4430016458575525</v>
       </c>
       <c r="F50" t="n">
-        <v>0.005783920587131024</v>
+        <v>1.0</v>
       </c>
       <c r="G50" t="n">
-        <v>0.011316366366125917</v>
+        <v>1.0</v>
       </c>
       <c r="H50" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I50" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51">
@@ -2352,28 +2397,28 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>6.0</v>
+        <v>37.0</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D51" t="n">
-        <v>0.2832064194523809</v>
+        <v>0.23543158178368312</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5097715550142856</v>
+        <v>0.4473200053889979</v>
       </c>
       <c r="F51" t="n">
-        <v>0.013385099597208244</v>
+        <v>5.292696384112396E-4</v>
       </c>
       <c r="G51" t="n">
-        <v>0.02409317927497484</v>
+        <v>0.0018622450240395468</v>
       </c>
       <c r="H51" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I51" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52">
@@ -2381,28 +2426,28 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>29.0</v>
+        <v>9.0</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D52" t="n">
-        <v>0.3234532688946471</v>
+        <v>0.26526646315716285</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5707998862846714</v>
+        <v>0.49412380392020533</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0016775129137218832</v>
+        <v>0.1452720581863412</v>
       </c>
       <c r="G52" t="n">
-        <v>0.004193782284304708</v>
+        <v>0.21232070042619097</v>
       </c>
       <c r="H52" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I52" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53">
@@ -2410,28 +2455,28 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3366574529265519</v>
+        <v>0.2744553923507344</v>
       </c>
       <c r="E53" t="n">
-        <v>0.5782005842525378</v>
+        <v>0.49762210971995896</v>
       </c>
       <c r="F53" t="n">
-        <v>0.004224670654085239</v>
+        <v>0.0031052611070105365</v>
       </c>
       <c r="G53" t="n">
-        <v>0.009052865687325511</v>
+        <v>0.007577239030222883</v>
       </c>
       <c r="H53" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I53" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54">
@@ -2439,28 +2484,28 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>4.0</v>
+        <v>13.0</v>
       </c>
       <c r="C54" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D54" t="n">
-        <v>0.3404958996153834</v>
+        <v>0.27762075594902974</v>
       </c>
       <c r="E54" t="n">
-        <v>0.5782005842525378</v>
+        <v>0.49762210971995896</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8561605145645709</v>
+        <v>0.005783920587131024</v>
       </c>
       <c r="G54" t="n">
-        <v>0.9173148370334687</v>
+        <v>0.011690903314413774</v>
       </c>
       <c r="H54" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="I54" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55">
@@ -2468,28 +2513,28 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D55" t="n">
-        <v>0.35751221287012547</v>
+        <v>0.2832064194523809</v>
       </c>
       <c r="E55" t="n">
-        <v>0.5862078740451557</v>
+        <v>0.4982335157032627</v>
       </c>
       <c r="F55" t="n">
-        <v>1.0</v>
+        <v>0.013385099597208244</v>
       </c>
       <c r="G55" t="n">
-        <v>1.0</v>
+        <v>0.024933028661466336</v>
       </c>
       <c r="H55" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I55" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56">
@@ -2497,28 +2542,28 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>13.0</v>
+        <v>3.0</v>
       </c>
       <c r="C56" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D56" t="n">
-        <v>0.36133900035536426</v>
+        <v>0.29959074049264417</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5862078740451557</v>
+        <v>0.5174749153963853</v>
       </c>
       <c r="F56" t="n">
-        <v>1.3146126205138075E-5</v>
+        <v>0.25442219218524853</v>
       </c>
       <c r="G56" t="n">
-        <v>1.3146126205138074E-4</v>
+        <v>0.33569594802220293</v>
       </c>
       <c r="H56" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I56" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57">
@@ -2526,28 +2571,28 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>3.0</v>
+        <v>29.0</v>
       </c>
       <c r="C57" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3742379148521019</v>
+        <v>0.3234532688946471</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5862078740451557</v>
+        <v>0.5455412639370976</v>
       </c>
       <c r="F57" t="n">
-        <v>0.40691620251169636</v>
+        <v>0.0016775129137218832</v>
       </c>
       <c r="G57" t="n">
-        <v>0.5016775099459271</v>
+        <v>0.004553249337245112</v>
       </c>
       <c r="H57" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I57" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58">
@@ -2555,28 +2600,28 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>3.0</v>
+        <v>119.0</v>
       </c>
       <c r="C58" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3773339581296302</v>
+        <v>0.3273247583622585</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5862078740451557</v>
+        <v>0.5455412639370976</v>
       </c>
       <c r="F58" t="n">
-        <v>0.354524329758008</v>
+        <v>6.48315339239715E-5</v>
       </c>
       <c r="G58" t="n">
-        <v>0.44939703772141865</v>
+        <v>4.105997148518195E-4</v>
       </c>
       <c r="H58" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I58" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59">
@@ -2584,28 +2629,28 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3791147623098561</v>
+        <v>0.3366574529265519</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5862078740451557</v>
+        <v>0.5514216901383178</v>
       </c>
       <c r="F59" t="n">
-        <v>1.0</v>
+        <v>0.004224670654085239</v>
       </c>
       <c r="G59" t="n">
-        <v>1.0</v>
+        <v>0.009333574700885992</v>
       </c>
       <c r="H59" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I59" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60">
@@ -2613,28 +2658,28 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>21.0</v>
+        <v>2.0</v>
       </c>
       <c r="C60" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D60" t="n">
-        <v>0.38495311652129294</v>
+        <v>0.35751221287012547</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5862078740451557</v>
+        <v>0.5721200838959933</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0036142546406907955</v>
+        <v>1.0</v>
       </c>
       <c r="G60" t="n">
-        <v>0.007933729699077357</v>
+        <v>1.0</v>
       </c>
       <c r="H60" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I60" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61">
@@ -2642,28 +2687,28 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>9.0</v>
+        <v>13.0</v>
       </c>
       <c r="C61" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D61" t="n">
-        <v>0.3908052493634372</v>
+        <v>0.36133900035536426</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5862078740451557</v>
+        <v>0.5721200838959933</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0013162906638631794</v>
+        <v>1.3146126205138075E-5</v>
       </c>
       <c r="G61" t="n">
-        <v>0.003484298816108416</v>
+        <v>1.3876466549867967E-4</v>
       </c>
       <c r="H61" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I61" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62">
@@ -2671,28 +2716,28 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="C62" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D62" t="n">
-        <v>0.4064261407353208</v>
+        <v>0.3742379148521019</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5996451256750635</v>
+        <v>0.5804848582463941</v>
       </c>
       <c r="F62" t="n">
-        <v>0.05740605151680975</v>
+        <v>0.40691620251169636</v>
       </c>
       <c r="G62" t="n">
-        <v>0.08907835580194616</v>
+        <v>0.5020394706313137</v>
       </c>
       <c r="H62" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I62" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63">
@@ -2700,28 +2745,28 @@
         <v>69</v>
       </c>
       <c r="B63" t="n">
-        <v>91.0</v>
+        <v>2.0</v>
       </c>
       <c r="C63" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D63" t="n">
-        <v>0.4164556069333786</v>
+        <v>0.3791147623098561</v>
       </c>
       <c r="E63" t="n">
-        <v>0.604532332645227</v>
+        <v>0.5804848582463941</v>
       </c>
       <c r="F63" t="n">
-        <v>5.765149762200128E-5</v>
+        <v>1.0</v>
       </c>
       <c r="G63" t="n">
-        <v>3.706167704271511E-4</v>
+        <v>1.0</v>
       </c>
       <c r="H63" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="I63" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64">
@@ -2729,28 +2774,28 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>13.0</v>
+        <v>21.0</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D64" t="n">
-        <v>0.4246489417821536</v>
+        <v>0.38495311652129294</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6066413454030766</v>
+        <v>0.5804848582463941</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004826594712439758</v>
+        <v>0.0036142546406907955</v>
       </c>
       <c r="G64" t="n">
-        <v>0.009872580093626779</v>
+        <v>0.008175099782514895</v>
       </c>
       <c r="H64" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I64" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65">
@@ -2758,28 +2803,28 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4384383312395924</v>
+        <v>0.4064261407353208</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6165539033056768</v>
+        <v>0.6032888026539918</v>
       </c>
       <c r="F65" t="n">
-        <v>0.025237296804812678</v>
+        <v>0.05740605151680975</v>
       </c>
       <c r="G65" t="n">
-        <v>0.0428557870270404</v>
+        <v>0.09089291490161543</v>
       </c>
       <c r="H65" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="I65" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66">
@@ -2787,28 +2832,28 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>15.0</v>
+        <v>91.0</v>
       </c>
       <c r="C66" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D66" t="n">
-        <v>0.47464537370857673</v>
+        <v>0.4164556069333786</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6439921025824923</v>
+        <v>0.6086658870564764</v>
       </c>
       <c r="F66" t="n">
-        <v>3.285619473144387E-4</v>
+        <v>5.765149762200128E-5</v>
       </c>
       <c r="G66" t="n">
-        <v>0.001344117057195431</v>
+        <v>3.912065910064372E-4</v>
       </c>
       <c r="H66" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="I66" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67">
@@ -2816,28 +2861,28 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>2.0</v>
+        <v>13.0</v>
       </c>
       <c r="C67" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4770783745021794</v>
+        <v>0.4246489417821536</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6439921025824923</v>
+        <v>0.6112371131712817</v>
       </c>
       <c r="F67" t="n">
-        <v>1.0</v>
+        <v>0.004826594712439758</v>
       </c>
       <c r="G67" t="n">
-        <v>1.0</v>
+        <v>0.010189477726261713</v>
       </c>
       <c r="H67" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="I67" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68">
@@ -2845,28 +2890,28 @@
         <v>74</v>
       </c>
       <c r="B68" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C68" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D68" t="n">
-        <v>0.4859354011959399</v>
+        <v>0.4384383312395924</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6439921025824923</v>
+        <v>0.6216662905636012</v>
       </c>
       <c r="F68" t="n">
-        <v>0.6388211133337174</v>
+        <v>0.025237296804812678</v>
       </c>
       <c r="G68" t="n">
-        <v>0.7277708886080325</v>
+        <v>0.045236664084098197</v>
       </c>
       <c r="H68" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I68" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69">
@@ -2874,28 +2919,28 @@
         <v>75</v>
       </c>
       <c r="B69" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="C69" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D69" t="n">
-        <v>0.49916464350482403</v>
+        <v>0.4643833317931402</v>
       </c>
       <c r="E69" t="n">
-        <v>0.6439921025824923</v>
+        <v>0.6261034330663119</v>
       </c>
       <c r="F69" t="n">
-        <v>0.15304588705018077</v>
+        <v>0.003572020684037605</v>
       </c>
       <c r="G69" t="n">
-        <v>0.20869893688661012</v>
+        <v>0.008175099782514895</v>
       </c>
       <c r="H69" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="I69" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70">
@@ -2903,28 +2948,28 @@
         <v>76</v>
       </c>
       <c r="B70" t="n">
-        <v>6.0</v>
+        <v>15.0</v>
       </c>
       <c r="C70" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D70" t="n">
-        <v>0.5000551078913449</v>
+        <v>0.47464537370857673</v>
       </c>
       <c r="E70" t="n">
-        <v>0.6439921025824923</v>
+        <v>0.6261034330663119</v>
       </c>
       <c r="F70" t="n">
-        <v>0.042107773699709625</v>
+        <v>3.285619473144387E-4</v>
       </c>
       <c r="G70" t="n">
-        <v>0.06890362969043394</v>
+        <v>0.0014187902270396218</v>
       </c>
       <c r="H70" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I70" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="71">
@@ -2932,28 +2977,28 @@
         <v>77</v>
       </c>
       <c r="B71" t="n">
-        <v>27.0</v>
+        <v>4.0</v>
       </c>
       <c r="C71" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D71" t="n">
-        <v>0.5008827464530495</v>
+        <v>0.4859354011959399</v>
       </c>
       <c r="E71" t="n">
-        <v>0.6439921025824923</v>
+        <v>0.6261034330663119</v>
       </c>
       <c r="F71" t="n">
-        <v>3.201506429673525E-5</v>
+        <v>0.6388211133337174</v>
       </c>
       <c r="G71" t="n">
-        <v>2.401129822255144E-4</v>
+        <v>0.7139765384318018</v>
       </c>
       <c r="H71" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="I71" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72">
@@ -2961,28 +3006,28 @@
         <v>78</v>
       </c>
       <c r="B72" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="C72" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D72" t="n">
-        <v>0.5164659878996234</v>
+        <v>0.4884638745262655</v>
       </c>
       <c r="E72" t="n">
-        <v>0.6546751959291002</v>
+        <v>0.6261034330663119</v>
       </c>
       <c r="F72" t="n">
-        <v>1.0</v>
+        <v>0.17674078988677816</v>
       </c>
       <c r="G72" t="n">
-        <v>1.0</v>
+        <v>0.24333876868469456</v>
       </c>
       <c r="H72" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I72" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73">
@@ -2990,28 +3035,28 @@
         <v>79</v>
       </c>
       <c r="B73" t="n">
-        <v>4.0</v>
+        <v>11.0</v>
       </c>
       <c r="C73" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D73" t="n">
-        <v>0.5279436539905078</v>
+        <v>0.49188076073297593</v>
       </c>
       <c r="E73" t="n">
-        <v>0.6599295674881347</v>
+        <v>0.6261034330663119</v>
       </c>
       <c r="F73" t="n">
-        <v>0.7971404118377086</v>
+        <v>0.04743330049213488</v>
       </c>
       <c r="G73" t="n">
-        <v>0.8749102081145582</v>
+        <v>0.07769247494401403</v>
       </c>
       <c r="H73" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="I73" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74">
@@ -3019,28 +3064,28 @@
         <v>80</v>
       </c>
       <c r="B74" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C74" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D74" t="n">
-        <v>0.5511603325103169</v>
+        <v>0.49364507837461424</v>
       </c>
       <c r="E74" t="n">
-        <v>0.6795127387113497</v>
+        <v>0.6261034330663119</v>
       </c>
       <c r="F74" t="n">
-        <v>1.0</v>
+        <v>0.16463831795545686</v>
       </c>
       <c r="G74" t="n">
-        <v>1.0</v>
+        <v>0.23000941479071177</v>
       </c>
       <c r="H74" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I74" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75">
@@ -3048,28 +3093,28 @@
         <v>81</v>
       </c>
       <c r="B75" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="C75" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D75" t="n">
-        <v>0.5855147094591655</v>
+        <v>0.49916464350482403</v>
       </c>
       <c r="E75" t="n">
-        <v>0.7121124844773634</v>
+        <v>0.6261034330663119</v>
       </c>
       <c r="F75" t="n">
-        <v>3.869268528500741E-4</v>
+        <v>0.15304588705018077</v>
       </c>
       <c r="G75" t="n">
-        <v>0.0014509756981877777</v>
+        <v>0.2202933222691996</v>
       </c>
       <c r="H75" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I75" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76">
@@ -3077,28 +3122,28 @@
         <v>82</v>
       </c>
       <c r="B76" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C76" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D76" t="n">
-        <v>0.6355031683294552</v>
+        <v>0.5000551078913449</v>
       </c>
       <c r="E76" t="n">
-        <v>0.7626038019953462</v>
+        <v>0.6261034330663119</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1312439299261385</v>
+        <v>0.042107773699709625</v>
       </c>
       <c r="G76" t="n">
-        <v>0.18749132846591215</v>
+        <v>0.07273160911768026</v>
       </c>
       <c r="H76" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="I76" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77">
@@ -3106,28 +3151,28 @@
         <v>83</v>
       </c>
       <c r="B77" t="n">
-        <v>16.0</v>
+        <v>27.0</v>
       </c>
       <c r="C77" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D77" t="n">
-        <v>0.6687402346984903</v>
+        <v>0.5008827464530495</v>
       </c>
       <c r="E77" t="n">
-        <v>0.7919292253008438</v>
+        <v>0.6261034330663119</v>
       </c>
       <c r="F77" t="n">
-        <v>3.6653412027701227E-5</v>
+        <v>3.201506429673525E-5</v>
       </c>
       <c r="G77" t="n">
-        <v>2.537543909610085E-4</v>
+        <v>2.534525923491541E-4</v>
       </c>
       <c r="H77" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I77" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78">
@@ -3135,28 +3180,28 @@
         <v>84</v>
       </c>
       <c r="B78" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C78" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D78" t="n">
-        <v>0.719774913662632</v>
+        <v>0.5164659878996234</v>
       </c>
       <c r="E78" t="n">
-        <v>0.8247324271737873</v>
+        <v>0.6371982967592756</v>
       </c>
       <c r="F78" t="n">
-        <v>0.7051612186385183</v>
+        <v>1.0</v>
       </c>
       <c r="G78" t="n">
-        <v>0.7933063709683331</v>
+        <v>1.0</v>
       </c>
       <c r="H78" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="I78" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79">
@@ -3164,28 +3209,28 @@
         <v>85</v>
       </c>
       <c r="B79" t="n">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="C79" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D79" t="n">
-        <v>0.7202212680737331</v>
+        <v>0.5511603325103169</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8247324271737873</v>
+        <v>0.6712850203651295</v>
       </c>
       <c r="F79" t="n">
-        <v>0.23438091186621915</v>
+        <v>1.0</v>
       </c>
       <c r="G79" t="n">
-        <v>0.3102100304111724</v>
+        <v>1.0</v>
       </c>
       <c r="H79" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="I79" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80">
@@ -3193,28 +3238,28 @@
         <v>86</v>
       </c>
       <c r="B80" t="n">
-        <v>12.0</v>
+        <v>9.0</v>
       </c>
       <c r="C80" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D80" t="n">
-        <v>0.7293092168917024</v>
+        <v>0.5666228820241739</v>
       </c>
       <c r="E80" t="n">
-        <v>0.8247324271737873</v>
+        <v>0.6813819467379306</v>
       </c>
       <c r="F80" t="n">
-        <v>0.007904242198304398</v>
+        <v>0.36144808992171285</v>
       </c>
       <c r="G80" t="n">
-        <v>0.014820454121820746</v>
+        <v>0.4578342472341696</v>
       </c>
       <c r="H80" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="I80" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81">
@@ -3222,28 +3267,28 @@
         <v>87</v>
       </c>
       <c r="B81" t="n">
-        <v>5.0</v>
+        <v>12.0</v>
       </c>
       <c r="C81" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D81" t="n">
-        <v>0.7330954908211442</v>
+        <v>0.5855147094591655</v>
       </c>
       <c r="E81" t="n">
-        <v>0.8247324271737873</v>
+        <v>0.6952987174827591</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09535493393148231</v>
+        <v>3.869268528500741E-4</v>
       </c>
       <c r="G81" t="n">
-        <v>0.14068760743989195</v>
+        <v>0.00153158545919821</v>
       </c>
       <c r="H81" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="I81" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="82">
@@ -3251,28 +3296,28 @@
         <v>88</v>
       </c>
       <c r="B82" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="C82" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D82" t="n">
-        <v>0.7698814095907635</v>
+        <v>0.6687402346984903</v>
       </c>
       <c r="E82" t="n">
-        <v>0.8554237884341817</v>
+        <v>0.7843249666216863</v>
       </c>
       <c r="F82" t="n">
-        <v>0.003173742028910736</v>
+        <v>3.6653412027701227E-5</v>
       </c>
       <c r="G82" t="n">
-        <v>0.007178436976000626</v>
+        <v>2.6785185712550896E-4</v>
       </c>
       <c r="H82" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="I82" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83">
@@ -3280,28 +3325,28 @@
         <v>89</v>
       </c>
       <c r="B83" t="n">
-        <v>27.0</v>
+        <v>5.0</v>
       </c>
       <c r="C83" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D83" t="n">
-        <v>0.811665428836541</v>
+        <v>0.6969649201770629</v>
       </c>
       <c r="E83" t="n">
-        <v>0.8908522999425451</v>
+        <v>0.8074593587417191</v>
       </c>
       <c r="F83" t="n">
-        <v>3.8392673714505017E-4</v>
+        <v>0.6963184277131809</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0014509756981877777</v>
+        <v>0.7691889608459556</v>
       </c>
       <c r="H83" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I83" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84">
@@ -3309,28 +3354,28 @@
         <v>90</v>
       </c>
       <c r="B84" t="n">
-        <v>19.0</v>
+        <v>3.0</v>
       </c>
       <c r="C84" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D84" t="n">
-        <v>0.8273164374552295</v>
+        <v>0.719774913662632</v>
       </c>
       <c r="E84" t="n">
-        <v>0.8970901129032609</v>
+        <v>0.8145359579405315</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0010385963563390751</v>
+        <v>0.7051612186385183</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0029519057266241587</v>
+        <v>0.7700036295478074</v>
       </c>
       <c r="H84" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I84" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="85">
@@ -3338,28 +3383,28 @@
         <v>91</v>
       </c>
       <c r="B85" t="n">
-        <v>22.0</v>
+        <v>5.0</v>
       </c>
       <c r="C85" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D85" t="n">
-        <v>0.8929393241659689</v>
+        <v>0.7202212680737331</v>
       </c>
       <c r="E85" t="n">
-        <v>0.9567207044635381</v>
+        <v>0.8145359579405315</v>
       </c>
       <c r="F85" t="n">
-        <v>1.3626541806706412E-4</v>
+        <v>0.23438091186621915</v>
       </c>
       <c r="G85" t="n">
-        <v>5.839946488588462E-4</v>
+        <v>0.3136082623562087</v>
       </c>
       <c r="H85" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="I85" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="86">
@@ -3367,28 +3412,28 @@
         <v>92</v>
       </c>
       <c r="B86" t="n">
-        <v>7.0</v>
+        <v>12.0</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D86" t="n">
-        <v>0.9180632655664742</v>
+        <v>0.7293092168917024</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9720669870703845</v>
+        <v>0.8151103012319026</v>
       </c>
       <c r="F86" t="n">
-        <v>0.02323796098988348</v>
+        <v>0.007904242198304398</v>
       </c>
       <c r="G86" t="n">
-        <v>0.04021954786710602</v>
+        <v>0.01532455120079424</v>
       </c>
       <c r="H86" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="I86" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="87">
@@ -3396,28 +3441,28 @@
         <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="C87" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D87" t="n">
-        <v>0.944366271024447</v>
+        <v>0.7698814095907635</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9747099035137735</v>
+        <v>0.8504503943153782</v>
       </c>
       <c r="F87" t="n">
-        <v>0.37285643064344387</v>
+        <v>0.003173742028910736</v>
       </c>
       <c r="G87" t="n">
-        <v>0.46607053830430484</v>
+        <v>0.007577239030222883</v>
       </c>
       <c r="H87" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I87" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="88">
@@ -3425,28 +3470,28 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>123.0</v>
+        <v>27.0</v>
       </c>
       <c r="C88" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D88" t="n">
-        <v>0.9503235839732482</v>
+        <v>0.811665428836541</v>
       </c>
       <c r="E88" t="n">
-        <v>0.9747099035137735</v>
+        <v>0.8863013303387518</v>
       </c>
       <c r="F88" t="n">
-        <v>1.3033232159890314E-6</v>
+        <v>3.8392673714505017E-4</v>
       </c>
       <c r="G88" t="n">
-        <v>2.9324772359753206E-5</v>
+        <v>0.00153158545919821</v>
       </c>
       <c r="H88" t="s">
-        <v>94</v>
+        <v>191</v>
       </c>
       <c r="I88" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89">
@@ -3454,28 +3499,28 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>359.0</v>
+        <v>19.0</v>
       </c>
       <c r="C89" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D89" t="n">
-        <v>0.9530496834356896</v>
+        <v>0.8273164374552295</v>
       </c>
       <c r="E89" t="n">
-        <v>0.9747099035137735</v>
+        <v>0.8931256995255319</v>
       </c>
       <c r="F89" t="n">
-        <v>1.0966944163810001E-5</v>
+        <v>0.0010385963563390751</v>
       </c>
       <c r="G89" t="n">
-        <v>1.233781218428625E-4</v>
+        <v>0.00311590048921439</v>
       </c>
       <c r="H89" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="I89" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="90">
@@ -3483,28 +3528,28 @@
         <v>96</v>
       </c>
       <c r="B90" t="n">
-        <v>4.0</v>
+        <v>356.0</v>
       </c>
       <c r="C90" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D90" t="n">
-        <v>0.9717930917502985</v>
+        <v>0.8817100312911846</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9827121152531109</v>
+        <v>0.9321894043490885</v>
       </c>
       <c r="F90" t="n">
-        <v>0.06983021740092288</v>
+        <v>1.1716840815475033E-5</v>
       </c>
       <c r="G90" t="n">
-        <v>0.10652067061157727</v>
+        <v>1.3876466549867967E-4</v>
       </c>
       <c r="H90" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="I90" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="91">
@@ -3512,28 +3557,173 @@
         <v>97</v>
       </c>
       <c r="B91" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>103</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.8928839949312074</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.9321894043490885</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.04544398136109316</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.07573996893515526</v>
+      </c>
+      <c r="H91" t="s">
+        <v>194</v>
+      </c>
+      <c r="I91" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.8929393241659689</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.9321894043490885</v>
+      </c>
+      <c r="F92" t="n">
+        <v>1.3626541806706412E-4</v>
+      </c>
+      <c r="G92" t="n">
+        <v>6.16438796017671E-4</v>
+      </c>
+      <c r="H92" t="s">
+        <v>195</v>
+      </c>
+      <c r="I92" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>104</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.944366271024447</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.9707606502952536</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.37285643064344387</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.46607053830430484</v>
+      </c>
+      <c r="H93" t="s">
+        <v>196</v>
+      </c>
+      <c r="I93" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" t="n">
+        <v>123.0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>104</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.9503235839732482</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.9707606502952536</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1.3033232159890314E-6</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2.5989267278812016E-5</v>
+      </c>
+      <c r="H94" t="s">
+        <v>100</v>
+      </c>
+      <c r="I94" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>103</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.9717930917502985</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.9821313161306209</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.06983021740092288</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.10875197791947006</v>
+      </c>
+      <c r="H95" t="s">
+        <v>197</v>
+      </c>
+      <c r="I95" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" t="n">
         <v>5.0</v>
       </c>
-      <c r="C91" t="s">
-        <v>98</v>
-      </c>
-      <c r="D91" t="n">
+      <c r="C96" t="s">
+        <v>103</v>
+      </c>
+      <c r="D96" t="n">
         <v>0.9909252584917041</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E96" t="n">
         <v>0.9909252584917041</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F96" t="n">
         <v>0.0974321992678209</v>
       </c>
-      <c r="G91" t="n">
-        <v>0.14143383764683679</v>
-      </c>
-      <c r="H91" t="s">
-        <v>188</v>
-      </c>
-      <c r="I91" t="s">
-        <v>278</v>
+      <c r="G96" t="n">
+        <v>0.14692157032449182</v>
+      </c>
+      <c r="H96" t="s">
+        <v>198</v>
+      </c>
+      <c r="I96" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/KEGG_raw_data/PNAscr_30m_vs_H2O_30m_KEGG_FNN_30.xlsx
+++ b/analysis/KEGG_raw_data/PNAscr_30m_vs_H2O_30m_KEGG_FNN_30.xlsx
@@ -92,111 +92,114 @@
     <t>fnu04980</t>
   </si>
   <si>
+    <t>fnu00860</t>
+  </si>
+  <si>
+    <t>fnu03440</t>
+  </si>
+  <si>
+    <t>fnu00040</t>
+  </si>
+  <si>
+    <t>fnu00030</t>
+  </si>
+  <si>
+    <t>fnu00190</t>
+  </si>
+  <si>
+    <t>fnu02020</t>
+  </si>
+  <si>
+    <t>fnu00480</t>
+  </si>
+  <si>
+    <t>fnu00010</t>
+  </si>
+  <si>
+    <t>fnu00550</t>
+  </si>
+  <si>
+    <t>fnu00561</t>
+  </si>
+  <si>
+    <t>fnu00240</t>
+  </si>
+  <si>
+    <t>fnu01200</t>
+  </si>
+  <si>
+    <t>fnu00523</t>
+  </si>
+  <si>
+    <t>fnu03018</t>
+  </si>
+  <si>
+    <t>fnu00380</t>
+  </si>
+  <si>
+    <t>fnu00780</t>
+  </si>
+  <si>
+    <t>fnu00362</t>
+  </si>
+  <si>
+    <t>fnu00670</t>
+  </si>
+  <si>
+    <t>fnu00350</t>
+  </si>
+  <si>
+    <t>fnu00400</t>
+  </si>
+  <si>
+    <t>fnu01120</t>
+  </si>
+  <si>
+    <t>fnu00540</t>
+  </si>
+  <si>
+    <t>fnu00360</t>
+  </si>
+  <si>
+    <t>fnu03030</t>
+  </si>
+  <si>
     <t>fnu01503</t>
   </si>
   <si>
-    <t>fnu00860</t>
-  </si>
-  <si>
-    <t>fnu03440</t>
-  </si>
-  <si>
-    <t>fnu00040</t>
-  </si>
-  <si>
-    <t>fnu00030</t>
-  </si>
-  <si>
-    <t>fnu00190</t>
-  </si>
-  <si>
-    <t>fnu00561</t>
-  </si>
-  <si>
-    <t>fnu00480</t>
-  </si>
-  <si>
-    <t>fnu02020</t>
-  </si>
-  <si>
-    <t>fnu00010</t>
-  </si>
-  <si>
-    <t>fnu00550</t>
-  </si>
-  <si>
-    <t>fnu00240</t>
-  </si>
-  <si>
-    <t>fnu01200</t>
-  </si>
-  <si>
-    <t>fnu00523</t>
-  </si>
-  <si>
-    <t>fnu03018</t>
-  </si>
-  <si>
-    <t>fnu00380</t>
-  </si>
-  <si>
-    <t>fnu00780</t>
-  </si>
-  <si>
-    <t>fnu00362</t>
-  </si>
-  <si>
-    <t>fnu00670</t>
-  </si>
-  <si>
-    <t>fnu00350</t>
-  </si>
-  <si>
-    <t>fnu00400</t>
-  </si>
-  <si>
-    <t>fnu01120</t>
+    <t>fnu01212</t>
+  </si>
+  <si>
+    <t>fnu00450</t>
+  </si>
+  <si>
+    <t>fnu03410</t>
+  </si>
+  <si>
+    <t>fnu00650</t>
+  </si>
+  <si>
+    <t>fnu00630</t>
+  </si>
+  <si>
+    <t>fnu01230</t>
+  </si>
+  <si>
+    <t>fnu03070</t>
+  </si>
+  <si>
+    <t>fnu00052</t>
+  </si>
+  <si>
+    <t>fnu00051</t>
+  </si>
+  <si>
+    <t>fnu00250</t>
   </si>
   <si>
     <t>fnu01501</t>
   </si>
   <si>
-    <t>fnu00540</t>
-  </si>
-  <si>
-    <t>fnu00360</t>
-  </si>
-  <si>
-    <t>fnu03030</t>
-  </si>
-  <si>
-    <t>fnu01212</t>
-  </si>
-  <si>
-    <t>fnu00450</t>
-  </si>
-  <si>
-    <t>fnu03410</t>
-  </si>
-  <si>
-    <t>fnu00650</t>
-  </si>
-  <si>
-    <t>fnu00630</t>
-  </si>
-  <si>
-    <t>fnu01230</t>
-  </si>
-  <si>
-    <t>fnu00052</t>
-  </si>
-  <si>
-    <t>fnu00051</t>
-  </si>
-  <si>
-    <t>fnu00250</t>
-  </si>
-  <si>
     <t>fnu01502</t>
   </si>
   <si>
@@ -233,9 +236,6 @@
     <t>fnu01240</t>
   </si>
   <si>
-    <t>fnu03070</t>
-  </si>
-  <si>
     <t>fnu00680</t>
   </si>
   <si>
@@ -383,111 +383,114 @@
     <t>Cobalamin transport and metabolism</t>
   </si>
   <si>
+    <t>Porphyrin metabolism</t>
+  </si>
+  <si>
+    <t>Homologous recombination</t>
+  </si>
+  <si>
+    <t>Pentose and glucuronate interconversions</t>
+  </si>
+  <si>
+    <t>Pentose phosphate pathway</t>
+  </si>
+  <si>
+    <t>Oxidative phosphorylation</t>
+  </si>
+  <si>
+    <t>Two-component system</t>
+  </si>
+  <si>
+    <t>Glutathione metabolism</t>
+  </si>
+  <si>
+    <t>Glycolysis / Gluconeogenesis</t>
+  </si>
+  <si>
+    <t>Peptidoglycan biosynthesis</t>
+  </si>
+  <si>
+    <t>Glycerolipid metabolism</t>
+  </si>
+  <si>
+    <t>Pyrimidine metabolism</t>
+  </si>
+  <si>
+    <t>Carbon metabolism</t>
+  </si>
+  <si>
+    <t>Polyketide sugar unit biosynthesis</t>
+  </si>
+  <si>
+    <t>RNA degradation</t>
+  </si>
+  <si>
+    <t>Tryptophan metabolism</t>
+  </si>
+  <si>
+    <t>Biotin metabolism</t>
+  </si>
+  <si>
+    <t>Benzoate degradation</t>
+  </si>
+  <si>
+    <t>One carbon pool by folate</t>
+  </si>
+  <si>
+    <t>Tyrosine metabolism</t>
+  </si>
+  <si>
+    <t>Phenylalanine, tyrosine and tryptophan biosynthesis</t>
+  </si>
+  <si>
+    <t>Microbial metabolism in diverse environments</t>
+  </si>
+  <si>
+    <t>Lipopolysaccharide biosynthesis</t>
+  </si>
+  <si>
+    <t>Phenylalanine metabolism</t>
+  </si>
+  <si>
+    <t>DNA replication</t>
+  </si>
+  <si>
     <t>Cationic antimicrobial peptide (CAMP) resistance</t>
   </si>
   <si>
-    <t>Porphyrin metabolism</t>
-  </si>
-  <si>
-    <t>Homologous recombination</t>
-  </si>
-  <si>
-    <t>Pentose and glucuronate interconversions</t>
-  </si>
-  <si>
-    <t>Pentose phosphate pathway</t>
-  </si>
-  <si>
-    <t>Oxidative phosphorylation</t>
-  </si>
-  <si>
-    <t>Glycerolipid metabolism</t>
-  </si>
-  <si>
-    <t>Glutathione metabolism</t>
-  </si>
-  <si>
-    <t>Two-component system</t>
-  </si>
-  <si>
-    <t>Glycolysis / Gluconeogenesis</t>
-  </si>
-  <si>
-    <t>Peptidoglycan biosynthesis</t>
-  </si>
-  <si>
-    <t>Pyrimidine metabolism</t>
-  </si>
-  <si>
-    <t>Carbon metabolism</t>
-  </si>
-  <si>
-    <t>Polyketide sugar unit biosynthesis</t>
-  </si>
-  <si>
-    <t>RNA degradation</t>
-  </si>
-  <si>
-    <t>Tryptophan metabolism</t>
-  </si>
-  <si>
-    <t>Biotin metabolism</t>
-  </si>
-  <si>
-    <t>Benzoate degradation</t>
-  </si>
-  <si>
-    <t>One carbon pool by folate</t>
-  </si>
-  <si>
-    <t>Tyrosine metabolism</t>
-  </si>
-  <si>
-    <t>Phenylalanine, tyrosine and tryptophan biosynthesis</t>
-  </si>
-  <si>
-    <t>Microbial metabolism in diverse environments</t>
+    <t>Fatty acid metabolism</t>
+  </si>
+  <si>
+    <t>Selenocompound metabolism</t>
+  </si>
+  <si>
+    <t>Base excision repair</t>
+  </si>
+  <si>
+    <t>Butanoate metabolism</t>
+  </si>
+  <si>
+    <t>Glyoxylate and dicarboxylate metabolism</t>
+  </si>
+  <si>
+    <t>Biosynthesis of amino acids</t>
+  </si>
+  <si>
+    <t>Bacterial secretion system</t>
+  </si>
+  <si>
+    <t>Galactose metabolism</t>
+  </si>
+  <si>
+    <t>Fructose and mannose metabolism</t>
+  </si>
+  <si>
+    <t>Alanine, aspartate and glutamate metabolism</t>
   </si>
   <si>
     <t>beta-Lactam resistance</t>
   </si>
   <si>
-    <t>Lipopolysaccharide biosynthesis</t>
-  </si>
-  <si>
-    <t>Phenylalanine metabolism</t>
-  </si>
-  <si>
-    <t>DNA replication</t>
-  </si>
-  <si>
-    <t>Fatty acid metabolism</t>
-  </si>
-  <si>
-    <t>Selenocompound metabolism</t>
-  </si>
-  <si>
-    <t>Base excision repair</t>
-  </si>
-  <si>
-    <t>Butanoate metabolism</t>
-  </si>
-  <si>
-    <t>Glyoxylate and dicarboxylate metabolism</t>
-  </si>
-  <si>
-    <t>Biosynthesis of amino acids</t>
-  </si>
-  <si>
-    <t>Galactose metabolism</t>
-  </si>
-  <si>
-    <t>Fructose and mannose metabolism</t>
-  </si>
-  <si>
-    <t>Alanine, aspartate and glutamate metabolism</t>
-  </si>
-  <si>
     <t>Vancomycin resistance</t>
   </si>
   <si>
@@ -524,9 +527,6 @@
     <t>Biosynthesis of cofactors</t>
   </si>
   <si>
-    <t>Bacterial secretion system</t>
-  </si>
-  <si>
     <t>Methane metabolism</t>
   </si>
   <si>
@@ -665,9 +665,6 @@
     <t>cds-C4N14_04180;cds-C4N14_05600</t>
   </si>
   <si>
-    <t>cds-C4N14_09855;cds-C4N14_09255;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_05430</t>
-  </si>
-  <si>
     <t>cds-C4N14_02805;cds-C4N14_09925;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07310;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_05815;cds-C4N14_05600;cds-C4N14_10135;cds-C4N14_01515;cds-C4N14_02030</t>
   </si>
   <si>
@@ -683,21 +680,21 @@
     <t>cds-C4N14_01800;cds-C4N14_05185;cds-C4N14_05190;cds-C4N14_05195;cds-C4N14_05200;cds-C4N14_05205;cds-C4N14_05210;cds-C4N14_05215;cds-C4N14_05220;cds-C4N14_01245;cds-C4N14_01250;cds-C4N14_01260;cds-C4N14_01265;cds-C4N14_01270;cds-C4N14_01275;cds-C4N14_01280;cds-C4N14_01285;cds-C4N14_03945</t>
   </si>
   <si>
-    <t>cds-C4N14_04115;cds-C4N14_09955;cds-C4N14_09805;cds-C4N14_09555;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860</t>
+    <t>cds-C4N14_04330;cds-C4N14_04490;cds-C4N14_04495;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04990;cds-C4N14_04995;cds-C4N14_09750;cds-C4N14_05830;cds-C4N14_05825;cds-C4N14_05765;cds-C4N14_10315;cds-C4N14_10320;cds-C4N14_10325;cds-C4N14_10330;cds-C4N14_10420;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03775;cds-C4N14_02185;cds-C4N14_02190;cds-C4N14_02195</t>
   </si>
   <si>
     <t>cds-C4N14_09985;cds-C4N14_07790;cds-C4N14_07470;cds-C4N14_05745;cds-C4N14_10475;cds-C4N14_01585;cds-C4N14_03545;cds-C4N14_02995</t>
   </si>
   <si>
-    <t>cds-C4N14_04330;cds-C4N14_04490;cds-C4N14_04495;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04990;cds-C4N14_04995;cds-C4N14_09750;cds-C4N14_05830;cds-C4N14_05825;cds-C4N14_10315;cds-C4N14_10320;cds-C4N14_10325;cds-C4N14_10330;cds-C4N14_10420;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03775;cds-C4N14_02185;cds-C4N14_02190;cds-C4N14_02195</t>
-  </si>
-  <si>
     <t>cds-C4N14_05010;cds-C4N14_10105;cds-C4N14_09955;cds-C4N14_09430;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_07595;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_10260;cds-C4N14_10535;cds-C4N14_01055;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01950</t>
   </si>
   <si>
     <t>cds-C4N14_02635;cds-C4N14_09605;cds-C4N14_09330;cds-C4N14_06365;cds-C4N14_06075;cds-C4N14_06005;cds-C4N14_05470;cds-C4N14_10690;cds-C4N14_10695;cds-C4N14_10700;cds-C4N14_10705;cds-C4N14_10710;cds-C4N14_10715;cds-C4N14_10725;cds-C4N14_00125;cds-C4N14_01035</t>
   </si>
   <si>
+    <t>cds-C4N14_04115;cds-C4N14_09955;cds-C4N14_09555;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860</t>
+  </si>
+  <si>
     <t>cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04570;cds-C4N14_04920;cds-C4N14_10085;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_09810;cds-C4N14_08410;cds-C4N14_07025;cds-C4N14_05485;cds-C4N14_00595;cds-C4N14_00605;cds-C4N14_00670;cds-C4N14_03565</t>
   </si>
   <si>
@@ -731,9 +728,6 @@
     <t>cds-C4N14_02800;cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04670;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_05010;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09785;cds-C4N14_09750;cds-C4N14_09685;cds-C4N14_09540;cds-C4N14_09430;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08155;cds-C4N14_07565;cds-C4N14_07115;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06885;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06030;cds-C4N14_10135;cds-C4N14_10260;cds-C4N14_10515;cds-C4N14_10535;cds-C4N14_10635;cds-C4N14_10865;cds-C4N14_10880;cds-C4N14_00210;cds-C4N14_01055;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03680;cds-C4N14_03060;cds-C4N14_01950;cds-C4N14_02080</t>
   </si>
   <si>
-    <t>cds-C4N14_09855;cds-C4N14_09605;cds-C4N14_06365;cds-C4N14_06075;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_00485</t>
-  </si>
-  <si>
     <t>cds-C4N14_04460;cds-C4N14_09720;cds-C4N14_09520;cds-C4N14_09265;cds-C4N14_09255;cds-C4N14_09250;cds-C4N14_09245;cds-C4N14_08185;cds-C4N14_07655;cds-C4N14_07525;cds-C4N14_07090;cds-C4N14_06495;cds-C4N14_06010;cds-C4N14_00590;cds-C4N14_01040;cds-C4N14_01500;cds-C4N14_03530</t>
   </si>
   <si>
@@ -743,6 +737,9 @@
     <t>cds-C4N14_04760;cds-C4N14_09560;cds-C4N14_09150;cds-C4N14_07585;cds-C4N14_05595;cds-C4N14_05505;cds-C4N14_10285;cds-C4N14_10345;cds-C4N14_00445;cds-C4N14_01175;cds-C4N14_03930;cds-C4N14_03915</t>
   </si>
   <si>
+    <t>cds-C4N14_09855;cds-C4N14_09255;cds-C4N14_05765;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_05430</t>
+  </si>
+  <si>
     <t>cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04135;cds-C4N14_04250;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09260;cds-C4N14_08295;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_00210;cds-C4N14_03815</t>
   </si>
   <si>
@@ -761,6 +758,9 @@
     <t>cds-C4N14_02565;cds-C4N14_04180;cds-C4N14_04745;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05175;cds-C4N14_10105;cds-C4N14_10035;cds-C4N14_09115;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08330;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07565;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07095;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06380;cds-C4N14_06030;cds-C4N14_10260;cds-C4N14_10485;cds-C4N14_10860;cds-C4N14_00375;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03680;cds-C4N14_03060</t>
   </si>
   <si>
+    <t>cds-C4N14_02370;cds-C4N14_09550;cds-C4N14_08725;cds-C4N14_08720;cds-C4N14_06785;cds-C4N14_05765;cds-C4N14_05425;cds-C4N14_10405;cds-C4N14_00680;cds-C4N14_01180;cds-C4N14_01890;cds-C4N14_02100;cds-C4N14_02135;cds-C4N14_02145</t>
+  </si>
+  <si>
     <t>cds-C4N14_05280;cds-C4N14_10105;cds-C4N14_09430;cds-C4N14_06300;cds-C4N14_05800;cds-C4N14_01055;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
   </si>
   <si>
@@ -770,6 +770,9 @@
     <t>cds-C4N14_02395;cds-C4N14_05240;cds-C4N14_10080;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_09965;cds-C4N14_09785;cds-C4N14_08450;cds-C4N14_08330;cds-C4N14_07240;cds-C4N14_06380;cds-C4N14_10420;cds-C4N14_00585</t>
   </si>
   <si>
+    <t>cds-C4N14_09855;cds-C4N14_09605;cds-C4N14_06365;cds-C4N14_06075;cds-C4N14_05765;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_00485</t>
+  </si>
+  <si>
     <t>cds-C4N14_10125;cds-C4N14_09770;cds-C4N14_10690;cds-C4N14_10705;cds-C4N14_10715;cds-C4N14_10725</t>
   </si>
   <si>
@@ -806,9 +809,6 @@
     <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_02625;cds-C4N14_02695;cds-C4N14_02740;cds-C4N14_02745;cds-C4N14_02805;cds-C4N14_04135;cds-C4N14_04160;cds-C4N14_04575;cds-C4N14_04695;cds-C4N14_05140;cds-C4N14_05175;cds-C4N14_05240;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09755;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09260;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08690;cds-C4N14_08670;cds-C4N14_08525;cds-C4N14_08400;cds-C4N14_07930;cds-C4N14_07925;cds-C4N14_07920;cds-C4N14_07725;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_07175;cds-C4N14_07170;cds-C4N14_07165;cds-C4N14_07100;cds-C4N14_06485;cds-C4N14_06120;cds-C4N14_05815;cds-C4N14_05800;cds-C4N14_05620;cds-C4N14_05600;cds-C4N14_10135;cds-C4N14_10735;cds-C4N14_10865;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00585;cds-C4N14_00670;cds-C4N14_01225;cds-C4N14_01230;cds-C4N14_01235;cds-C4N14_01330;cds-C4N14_01335;cds-C4N14_01340;cds-C4N14_01345;cds-C4N14_01355;cds-C4N14_01360;cds-C4N14_01365;cds-C4N14_01515;cds-C4N14_03415;cds-C4N14_02030;cds-C4N14_02080</t>
   </si>
   <si>
-    <t>cds-C4N14_02370;cds-C4N14_09550;cds-C4N14_08725;cds-C4N14_08720;cds-C4N14_06785;cds-C4N14_05425;cds-C4N14_10405;cds-C4N14_00680;cds-C4N14_01180;cds-C4N14_01890;cds-C4N14_02100;cds-C4N14_02135;cds-C4N14_02145</t>
-  </si>
-  <si>
     <t>cds-C4N14_05010;cds-C4N14_10105;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08230;cds-C4N14_06345;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_01390</t>
   </si>
   <si>
@@ -875,7 +875,7 @@
     <t>cds-C4N14_04760;cds-C4N14_05260;cds-C4N14_09610;cds-C4N14_09560;cds-C4N14_09270;cds-C4N14_09150;cds-C4N14_08755;cds-C4N14_07585;cds-C4N14_06825;cds-C4N14_05595;cds-C4N14_05460;cds-C4N14_10345;cds-C4N14_00445;cds-C4N14_00470;cds-C4N14_01175;cds-C4N14_03915;cds-C4N14_03745;cds-C4N14_03460;cds-C4N14_02900</t>
   </si>
   <si>
-    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_02625;cds-C4N14_02635;cds-C4N14_02695;cds-C4N14_02740;cds-C4N14_02745;cds-C4N14_02770;cds-C4N14_02775;cds-C4N14_02780;cds-C4N14_02800;cds-C4N14_02805;cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04115;cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04135;cds-C4N14_04160;cds-C4N14_04180;cds-C4N14_04250;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04460;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_04670;cds-C4N14_04695;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_04920;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05140;cds-C4N14_05175;cds-C4N14_05180;cds-C4N14_05185;cds-C4N14_05190;cds-C4N14_05195;cds-C4N14_05200;cds-C4N14_05205;cds-C4N14_05210;cds-C4N14_05215;cds-C4N14_05220;cds-C4N14_05230;cds-C4N14_05240;cds-C4N14_05280;cds-C4N14_10125;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10085;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09985;cds-C4N14_09965;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09810;cds-C4N14_09805;cds-C4N14_09785;cds-C4N14_09770;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09720;cds-C4N14_09685;cds-C4N14_09605;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09520;cds-C4N14_09465;cds-C4N14_09430;cds-C4N14_09330;cds-C4N14_09265;cds-C4N14_09260;cds-C4N14_09255;cds-C4N14_09250;cds-C4N14_09245;cds-C4N14_09135;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08930;cds-C4N14_08920;cds-C4N14_08830;cds-C4N14_08825;cds-C4N14_08805;cds-C4N14_08690;cds-C4N14_08670;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08520;cds-C4N14_08515;cds-C4N14_08450;cds-C4N14_08445;cds-C4N14_08440;cds-C4N14_08435;cds-C4N14_08430;cds-C4N14_08410;cds-C4N14_08400;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08265;cds-C4N14_08260;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08185;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07930;cds-C4N14_07925;cds-C4N14_07920;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07840;cds-C4N14_07815;cds-C4N14_07800;cds-C4N14_07790;cds-C4N14_07725;cds-C4N14_07660;cds-C4N14_07655;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07595;cds-C4N14_07565;cds-C4N14_07560;cds-C4N14_07545;cds-C4N14_07525;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07470;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07310;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_07175;cds-C4N14_07170;cds-C4N14_07165;cds-C4N14_07115;cds-C4N14_07100;cds-C4N14_07095;cds-C4N14_07090;cds-C4N14_07070;cds-C4N14_07025;cds-C4N14_06915;cds-C4N14_06885;cds-C4N14_06875;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06535;cds-C4N14_06495;cds-C4N14_06485;cds-C4N14_06480;cds-C4N14_06430;cds-C4N14_06380;cds-C4N14_06365;cds-C4N14_06345;cds-C4N14_06320;cds-C4N14_06310;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06200;cds-C4N14_06120;cds-C4N14_06090;cds-C4N14_06075;cds-C4N14_06030;cds-C4N14_06010;cds-C4N14_06005;cds-C4N14_05980;cds-C4N14_05815;cds-C4N14_05800;cds-C4N14_05790;cds-C4N14_05745;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05600;cds-C4N14_05580;cds-C4N14_05575;cds-C4N14_05485;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10145;cds-C4N14_10260;cds-C4N14_10310;cds-C4N14_10420;cds-C4N14_10440;cds-C4N14_10455;cds-C4N14_10465;cds-C4N14_10470;cds-C4N14_10475;cds-C4N14_10485;cds-C4N14_10490;cds-C4N14_10495;cds-C4N14_10515;cds-C4N14_10525;cds-C4N14_10535;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10640;cds-C4N14_10690;cds-C4N14_10695;cds-C4N14_10700;cds-C4N14_10705;cds-C4N14_10710;cds-C4N14_10715;cds-C4N14_10725;cds-C4N14_10735;cds-C4N14_10740;cds-C4N14_10800;cds-C4N14_10805;cds-C4N14_10835;cds-C4N14_10840;cds-C4N14_10860;cds-C4N14_10865;cds-C4N14_10870;cds-C4N14_10880;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00125;cds-C4N14_00210;cds-C4N14_00215;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00370;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00585;cds-C4N14_00590;cds-C4N14_00595;cds-C4N14_00605;cds-C4N14_00670;cds-C4N14_00890;cds-C4N14_00950;cds-C4N14_01020;cds-C4N14_01040;cds-C4N14_01055;cds-C4N14_01065;cds-C4N14_01240;cds-C4N14_01245;cds-C4N14_01250;cds-C4N14_01260;cds-C4N14_01265;cds-C4N14_01270;cds-C4N14_01275;cds-C4N14_01280;cds-C4N14_01285;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01330;cds-C4N14_01335;cds-C4N14_01340;cds-C4N14_01345;cds-C4N14_01355;cds-C4N14_01360;cds-C4N14_01365;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01500;cds-C4N14_01505;cds-C4N14_01515;cds-C4N14_01585;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860;cds-C4N14_03840;cds-C4N14_03815;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03755;cds-C4N14_03750;cds-C4N14_03735;cds-C4N14_03730;cds-C4N14_03725;cds-C4N14_03720;cds-C4N14_03680;cds-C4N14_03565;cds-C4N14_03545;cds-C4N14_03530;cds-C4N14_03490;cds-C4N14_03470;cds-C4N14_03425;cds-C4N14_03415;cds-C4N14_03345;cds-C4N14_03065;cds-C4N14_03060;cds-C4N14_02995;cds-C4N14_01845;cds-C4N14_01950;cds-C4N14_02030;cds-C4N14_02045;cds-C4N14_02080;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
+    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_02625;cds-C4N14_02635;cds-C4N14_02695;cds-C4N14_02740;cds-C4N14_02745;cds-C4N14_02770;cds-C4N14_02775;cds-C4N14_02780;cds-C4N14_02800;cds-C4N14_02805;cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04115;cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04135;cds-C4N14_04160;cds-C4N14_04180;cds-C4N14_04250;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04460;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_04670;cds-C4N14_04695;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_04920;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05140;cds-C4N14_05175;cds-C4N14_05180;cds-C4N14_05185;cds-C4N14_05190;cds-C4N14_05195;cds-C4N14_05200;cds-C4N14_05205;cds-C4N14_05210;cds-C4N14_05215;cds-C4N14_05220;cds-C4N14_05230;cds-C4N14_05240;cds-C4N14_05280;cds-C4N14_10125;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10085;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09985;cds-C4N14_09965;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09810;cds-C4N14_09785;cds-C4N14_09770;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09720;cds-C4N14_09685;cds-C4N14_09605;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09520;cds-C4N14_09465;cds-C4N14_09430;cds-C4N14_09330;cds-C4N14_09265;cds-C4N14_09260;cds-C4N14_09255;cds-C4N14_09250;cds-C4N14_09245;cds-C4N14_09135;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08930;cds-C4N14_08920;cds-C4N14_08830;cds-C4N14_08825;cds-C4N14_08805;cds-C4N14_08690;cds-C4N14_08670;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08520;cds-C4N14_08515;cds-C4N14_08450;cds-C4N14_08445;cds-C4N14_08440;cds-C4N14_08435;cds-C4N14_08430;cds-C4N14_08410;cds-C4N14_08400;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08265;cds-C4N14_08260;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08185;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07930;cds-C4N14_07925;cds-C4N14_07920;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07840;cds-C4N14_07815;cds-C4N14_07800;cds-C4N14_07790;cds-C4N14_07725;cds-C4N14_07660;cds-C4N14_07655;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07595;cds-C4N14_07565;cds-C4N14_07560;cds-C4N14_07545;cds-C4N14_07525;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07470;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07310;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_07175;cds-C4N14_07170;cds-C4N14_07165;cds-C4N14_07115;cds-C4N14_07100;cds-C4N14_07095;cds-C4N14_07090;cds-C4N14_07070;cds-C4N14_07025;cds-C4N14_06915;cds-C4N14_06885;cds-C4N14_06875;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06535;cds-C4N14_06495;cds-C4N14_06485;cds-C4N14_06480;cds-C4N14_06430;cds-C4N14_06380;cds-C4N14_06365;cds-C4N14_06345;cds-C4N14_06320;cds-C4N14_06310;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06200;cds-C4N14_06120;cds-C4N14_06090;cds-C4N14_06075;cds-C4N14_06030;cds-C4N14_06010;cds-C4N14_06005;cds-C4N14_05980;cds-C4N14_05815;cds-C4N14_05800;cds-C4N14_05790;cds-C4N14_05745;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05600;cds-C4N14_05580;cds-C4N14_05575;cds-C4N14_05485;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10145;cds-C4N14_10260;cds-C4N14_10310;cds-C4N14_10420;cds-C4N14_10440;cds-C4N14_10455;cds-C4N14_10465;cds-C4N14_10470;cds-C4N14_10475;cds-C4N14_10485;cds-C4N14_10490;cds-C4N14_10495;cds-C4N14_10515;cds-C4N14_10525;cds-C4N14_10535;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10640;cds-C4N14_10690;cds-C4N14_10695;cds-C4N14_10700;cds-C4N14_10705;cds-C4N14_10710;cds-C4N14_10715;cds-C4N14_10725;cds-C4N14_10735;cds-C4N14_10740;cds-C4N14_10800;cds-C4N14_10805;cds-C4N14_10835;cds-C4N14_10840;cds-C4N14_10860;cds-C4N14_10865;cds-C4N14_10870;cds-C4N14_10880;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00125;cds-C4N14_00210;cds-C4N14_00215;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00370;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00585;cds-C4N14_00590;cds-C4N14_00595;cds-C4N14_00605;cds-C4N14_00670;cds-C4N14_00890;cds-C4N14_00950;cds-C4N14_01020;cds-C4N14_01040;cds-C4N14_01055;cds-C4N14_01065;cds-C4N14_01240;cds-C4N14_01245;cds-C4N14_01250;cds-C4N14_01260;cds-C4N14_01265;cds-C4N14_01270;cds-C4N14_01275;cds-C4N14_01280;cds-C4N14_01285;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01330;cds-C4N14_01335;cds-C4N14_01340;cds-C4N14_01345;cds-C4N14_01355;cds-C4N14_01360;cds-C4N14_01365;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01500;cds-C4N14_01505;cds-C4N14_01515;cds-C4N14_01585;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860;cds-C4N14_03840;cds-C4N14_03815;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03755;cds-C4N14_03750;cds-C4N14_03735;cds-C4N14_03730;cds-C4N14_03725;cds-C4N14_03720;cds-C4N14_03680;cds-C4N14_03565;cds-C4N14_03545;cds-C4N14_03530;cds-C4N14_03490;cds-C4N14_03470;cds-C4N14_03425;cds-C4N14_03415;cds-C4N14_03345;cds-C4N14_03065;cds-C4N14_03060;cds-C4N14_02995;cds-C4N14_01845;cds-C4N14_01950;cds-C4N14_02030;cds-C4N14_02045;cds-C4N14_02080;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
   </si>
   <si>
     <t>cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_08295;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_00210</t>
@@ -1107,7 +1107,7 @@
         <v>5.145141809960637E-4</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0018622450240395468</v>
+        <v>0.0019338698326564524</v>
       </c>
       <c r="H6" t="s">
         <v>109</v>
@@ -1397,7 +1397,7 @@
         <v>0.006192850176363569</v>
       </c>
       <c r="G16" t="n">
-        <v>0.012256682640719566</v>
+        <v>0.012517463122437003</v>
       </c>
       <c r="H16" t="s">
         <v>119</v>
@@ -1478,7 +1478,7 @@
         <v>0.02007907714028171</v>
       </c>
       <c r="E19" t="n">
-        <v>0.10136226393379862</v>
+        <v>0.10597290712926458</v>
       </c>
       <c r="F19" t="n">
         <v>1.0</v>
@@ -1498,22 +1498,22 @@
         <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>5.0</v>
+        <v>29.0</v>
       </c>
       <c r="C20" t="s">
         <v>103</v>
       </c>
       <c r="D20" t="n">
-        <v>0.020272452786759723</v>
+        <v>0.02503705621679355</v>
       </c>
       <c r="E20" t="n">
-        <v>0.10136226393379862</v>
+        <v>0.12063189905001798</v>
       </c>
       <c r="F20" t="n">
-        <v>0.519977148839511</v>
+        <v>1.308492836484247E-4</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6174728642469193</v>
+        <v>6.16438796017671E-4</v>
       </c>
       <c r="H20" t="s">
         <v>123</v>
@@ -1527,22 +1527,22 @@
         <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>29.0</v>
+        <v>20.0</v>
       </c>
       <c r="C21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D21" t="n">
-        <v>0.02503705621679355</v>
+        <v>0.025396189273687995</v>
       </c>
       <c r="E21" t="n">
-        <v>0.11488752290477902</v>
+        <v>0.12063189905001798</v>
       </c>
       <c r="F21" t="n">
-        <v>1.308492836484247E-4</v>
+        <v>2.9187664488997016E-5</v>
       </c>
       <c r="G21" t="n">
-        <v>6.16438796017671E-4</v>
+        <v>2.5207528422315607E-4</v>
       </c>
       <c r="H21" t="s">
         <v>124</v>
@@ -1556,22 +1556,22 @@
         <v>28</v>
       </c>
       <c r="B22" t="n">
-        <v>20.0</v>
+        <v>3.0</v>
       </c>
       <c r="C22" t="s">
         <v>104</v>
       </c>
       <c r="D22" t="n">
-        <v>0.025396189273687995</v>
+        <v>0.027210226264595308</v>
       </c>
       <c r="E22" t="n">
-        <v>0.11488752290477902</v>
+        <v>0.12309388072078829</v>
       </c>
       <c r="F22" t="n">
-        <v>2.9187664488997016E-5</v>
+        <v>0.7444139550455495</v>
       </c>
       <c r="G22" t="n">
-        <v>2.5207528422315607E-4</v>
+        <v>0.8036287014696274</v>
       </c>
       <c r="H22" t="s">
         <v>125</v>
@@ -1585,22 +1585,22 @@
         <v>29</v>
       </c>
       <c r="B23" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="C23" t="s">
         <v>104</v>
       </c>
       <c r="D23" t="n">
-        <v>0.027210226264595308</v>
+        <v>0.0336039513419453</v>
       </c>
       <c r="E23" t="n">
-        <v>0.11749870432438883</v>
+        <v>0.13913528779628223</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7444139550455495</v>
+        <v>0.0010495664805774787</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8036287014696274</v>
+        <v>0.00311590048921439</v>
       </c>
       <c r="H23" t="s">
         <v>126</v>
@@ -1614,22 +1614,22 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>11.0</v>
+        <v>18.0</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0336039513419453</v>
+        <v>0.033685385466468334</v>
       </c>
       <c r="E24" t="n">
-        <v>0.13333798413810383</v>
+        <v>0.13913528779628223</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0010495664805774787</v>
+        <v>7.985014289769096E-5</v>
       </c>
       <c r="G24" t="n">
-        <v>0.00311590048921439</v>
+        <v>4.4622138678121416E-4</v>
       </c>
       <c r="H24" t="s">
         <v>127</v>
@@ -1643,22 +1643,22 @@
         <v>31</v>
       </c>
       <c r="B25" t="n">
-        <v>18.0</v>
+        <v>22.0</v>
       </c>
       <c r="C25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D25" t="n">
-        <v>0.033685385466468334</v>
+        <v>0.04334952687050056</v>
       </c>
       <c r="E25" t="n">
-        <v>0.13333798413810383</v>
+        <v>0.17159187719573138</v>
       </c>
       <c r="F25" t="n">
-        <v>7.985014289769096E-5</v>
+        <v>5.962038962128123E-4</v>
       </c>
       <c r="G25" t="n">
-        <v>4.4622138678121416E-4</v>
+        <v>0.0020228346478648987</v>
       </c>
       <c r="H25" t="s">
         <v>128</v>
@@ -1672,22 +1672,22 @@
         <v>32</v>
       </c>
       <c r="B26" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" t="n">
-        <v>0.04888836124892412</v>
+        <v>0.049831070408721936</v>
       </c>
       <c r="E26" t="n">
-        <v>0.18207506495494552</v>
+        <v>0.18935806755314336</v>
       </c>
       <c r="F26" t="n">
-        <v>0.056054607586959716</v>
+        <v>0.1420037056857792</v>
       </c>
       <c r="G26" t="n">
-        <v>0.09025741899595208</v>
+        <v>0.2107867506273285</v>
       </c>
       <c r="H26" t="s">
         <v>129</v>
@@ -1701,22 +1701,22 @@
         <v>33</v>
       </c>
       <c r="B27" t="n">
-        <v>8.0</v>
+        <v>22.0</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D27" t="n">
-        <v>0.049831070408721936</v>
+        <v>0.06352375575936957</v>
       </c>
       <c r="E27" t="n">
-        <v>0.18207506495494552</v>
+        <v>0.23210603065923496</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1420037056857792</v>
+        <v>0.0025008080979696413</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2107867506273285</v>
+        <v>0.006599354702975442</v>
       </c>
       <c r="H27" t="s">
         <v>130</v>
@@ -1730,22 +1730,22 @@
         <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>21.0</v>
+        <v>16.0</v>
       </c>
       <c r="C28" t="s">
         <v>104</v>
       </c>
       <c r="D28" t="n">
-        <v>0.052867033871709476</v>
+        <v>0.07138807287957757</v>
       </c>
       <c r="E28" t="n">
-        <v>0.18601363769675558</v>
+        <v>0.2444570363279865</v>
       </c>
       <c r="F28" t="n">
-        <v>4.340706796983132E-4</v>
+        <v>1.0088483645528426E-6</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0016494685828535901</v>
+        <v>2.5989267278812016E-5</v>
       </c>
       <c r="H28" t="s">
         <v>131</v>
@@ -1759,22 +1759,22 @@
         <v>35</v>
       </c>
       <c r="B29" t="n">
-        <v>22.0</v>
+        <v>6.0</v>
       </c>
       <c r="C29" t="s">
         <v>104</v>
       </c>
       <c r="D29" t="n">
-        <v>0.06352375575936957</v>
+        <v>0.07455458886777606</v>
       </c>
       <c r="E29" t="n">
-        <v>0.21552702846928962</v>
+        <v>0.2444570363279865</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0025008080979696413</v>
+        <v>0.08467906171917282</v>
       </c>
       <c r="G29" t="n">
-        <v>0.006599354702975442</v>
+        <v>0.13187722726756423</v>
       </c>
       <c r="H29" t="s">
         <v>132</v>
@@ -1788,22 +1788,22 @@
         <v>36</v>
       </c>
       <c r="B30" t="n">
-        <v>16.0</v>
+        <v>21.0</v>
       </c>
       <c r="C30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07138807287957757</v>
+        <v>0.08767084724243142</v>
       </c>
       <c r="E30" t="n">
-        <v>0.23385748012275412</v>
+        <v>0.2444570363279865</v>
       </c>
       <c r="F30" t="n">
-        <v>1.0088483645528426E-6</v>
+        <v>1.462043308279578E-8</v>
       </c>
       <c r="G30" t="n">
-        <v>2.5989267278812016E-5</v>
+        <v>6.944705714327996E-7</v>
       </c>
       <c r="H30" t="s">
         <v>133</v>
@@ -1817,22 +1817,22 @@
         <v>37</v>
       </c>
       <c r="B31" t="n">
-        <v>21.0</v>
+        <v>40.0</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08767084724243142</v>
+        <v>0.08797491083459541</v>
       </c>
       <c r="E31" t="n">
-        <v>0.23834561041978686</v>
+        <v>0.2444570363279865</v>
       </c>
       <c r="F31" t="n">
-        <v>1.462043308279578E-8</v>
+        <v>5.815913042627115E-4</v>
       </c>
       <c r="G31" t="n">
-        <v>6.944705714327996E-7</v>
+        <v>0.0020228346478648987</v>
       </c>
       <c r="H31" t="s">
         <v>134</v>
@@ -1846,22 +1846,22 @@
         <v>38</v>
       </c>
       <c r="B32" t="n">
-        <v>40.0</v>
+        <v>3.0</v>
       </c>
       <c r="C32" t="s">
         <v>104</v>
       </c>
       <c r="D32" t="n">
-        <v>0.08797491083459541</v>
+        <v>0.08815015921583769</v>
       </c>
       <c r="E32" t="n">
-        <v>0.23834561041978686</v>
+        <v>0.2444570363279865</v>
       </c>
       <c r="F32" t="n">
-        <v>5.815913042627115E-4</v>
+        <v>0.5062792612321221</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0019732562108913426</v>
+        <v>0.601206622713145</v>
       </c>
       <c r="H32" t="s">
         <v>135</v>
@@ -1875,22 +1875,22 @@
         <v>39</v>
       </c>
       <c r="B33" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="C33" t="s">
         <v>104</v>
       </c>
       <c r="D33" t="n">
-        <v>0.08815015921583769</v>
+        <v>0.0896682703591252</v>
       </c>
       <c r="E33" t="n">
-        <v>0.23834561041978686</v>
+        <v>0.2444570363279865</v>
       </c>
       <c r="F33" t="n">
-        <v>0.5062792612321221</v>
+        <v>0.005548782356618453</v>
       </c>
       <c r="G33" t="n">
-        <v>0.6088168331272354</v>
+        <v>0.011714096086194512</v>
       </c>
       <c r="H33" t="s">
         <v>136</v>
@@ -1904,22 +1904,22 @@
         <v>40</v>
       </c>
       <c r="B34" t="n">
-        <v>11.0</v>
+        <v>3.0</v>
       </c>
       <c r="C34" t="s">
         <v>104</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0896682703591252</v>
+        <v>0.09213419344077106</v>
       </c>
       <c r="E34" t="n">
-        <v>0.23834561041978686</v>
+        <v>0.2444570363279865</v>
       </c>
       <c r="F34" t="n">
-        <v>0.005548782356618453</v>
+        <v>0.85221961605205</v>
       </c>
       <c r="G34" t="n">
-        <v>0.011459441823451152</v>
+        <v>0.9096726238757836</v>
       </c>
       <c r="H34" t="s">
         <v>137</v>
@@ -1933,22 +1933,22 @@
         <v>41</v>
       </c>
       <c r="B35" t="n">
-        <v>3.0</v>
+        <v>10.0</v>
       </c>
       <c r="C35" t="s">
         <v>104</v>
       </c>
       <c r="D35" t="n">
-        <v>0.09213419344077106</v>
+        <v>0.09463084396830687</v>
       </c>
       <c r="E35" t="n">
-        <v>0.23834561041978686</v>
+        <v>0.2444570363279865</v>
       </c>
       <c r="F35" t="n">
-        <v>0.85221961605205</v>
+        <v>0.0046731704702894766</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9096726238757836</v>
+        <v>0.010089799879034097</v>
       </c>
       <c r="H35" t="s">
         <v>138</v>
@@ -1962,22 +1962,22 @@
         <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="C36" t="s">
         <v>104</v>
       </c>
       <c r="D36" t="n">
-        <v>0.09463084396830687</v>
+        <v>0.09549952814270474</v>
       </c>
       <c r="E36" t="n">
-        <v>0.23834561041978686</v>
+        <v>0.2444570363279865</v>
       </c>
       <c r="F36" t="n">
-        <v>0.0046731704702894766</v>
+        <v>0.09507426490362246</v>
       </c>
       <c r="G36" t="n">
-        <v>0.010089799879034097</v>
+        <v>0.14567830912651827</v>
       </c>
       <c r="H36" t="s">
         <v>139</v>
@@ -1991,22 +1991,22 @@
         <v>43</v>
       </c>
       <c r="B37" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="C37" t="s">
         <v>104</v>
       </c>
       <c r="D37" t="n">
-        <v>0.09549952814270474</v>
+        <v>0.09626185793110886</v>
       </c>
       <c r="E37" t="n">
-        <v>0.23834561041978686</v>
+        <v>0.2444570363279865</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09507426490362246</v>
+        <v>4.71576488290041E-6</v>
       </c>
       <c r="G37" t="n">
-        <v>0.14567830912651827</v>
+        <v>6.794555389538586E-5</v>
       </c>
       <c r="H37" t="s">
         <v>140</v>
@@ -2020,22 +2020,22 @@
         <v>44</v>
       </c>
       <c r="B38" t="n">
-        <v>12.0</v>
+        <v>2.0</v>
       </c>
       <c r="C38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D38" t="n">
-        <v>0.09626185793110886</v>
+        <v>0.09730414031300029</v>
       </c>
       <c r="E38" t="n">
-        <v>0.23834561041978686</v>
+        <v>0.2444570363279865</v>
       </c>
       <c r="F38" t="n">
-        <v>4.71576488290041E-6</v>
+        <v>0.5803662854069402</v>
       </c>
       <c r="G38" t="n">
-        <v>6.794555389538586E-5</v>
+        <v>0.6563666323054681</v>
       </c>
       <c r="H38" t="s">
         <v>141</v>
@@ -2049,22 +2049,22 @@
         <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="C39" t="s">
         <v>103</v>
       </c>
       <c r="D39" t="n">
-        <v>0.09730414031300029</v>
+        <v>0.09930314738220355</v>
       </c>
       <c r="E39" t="n">
-        <v>0.23834561041978686</v>
+        <v>0.2444570363279865</v>
       </c>
       <c r="F39" t="n">
-        <v>0.5803662854069402</v>
+        <v>0.019654233756686634</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6563666323054681</v>
+        <v>0.03590677320933135</v>
       </c>
       <c r="H39" t="s">
         <v>142</v>
@@ -2078,22 +2078,22 @@
         <v>46</v>
       </c>
       <c r="B40" t="n">
-        <v>8.0</v>
+        <v>69.0</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D40" t="n">
-        <v>0.09930314738220355</v>
+        <v>0.10035604649254183</v>
       </c>
       <c r="E40" t="n">
-        <v>0.23834561041978686</v>
+        <v>0.2444570363279865</v>
       </c>
       <c r="F40" t="n">
-        <v>0.019654233756686634</v>
+        <v>7.379831265130468E-5</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03590677320933135</v>
+        <v>4.3817748136712155E-4</v>
       </c>
       <c r="H40" t="s">
         <v>143</v>
@@ -2107,22 +2107,22 @@
         <v>47</v>
       </c>
       <c r="B41" t="n">
-        <v>69.0</v>
+        <v>17.0</v>
       </c>
       <c r="C41" t="s">
         <v>104</v>
       </c>
       <c r="D41" t="n">
-        <v>0.10035604649254183</v>
+        <v>0.1213371747962585</v>
       </c>
       <c r="E41" t="n">
-        <v>0.23834561041978686</v>
+        <v>0.28817579014111394</v>
       </c>
       <c r="F41" t="n">
-        <v>7.379831265130468E-5</v>
+        <v>0.04408329737825797</v>
       </c>
       <c r="G41" t="n">
-        <v>4.3817748136712155E-4</v>
+        <v>0.07478416519525904</v>
       </c>
       <c r="H41" t="s">
         <v>144</v>
@@ -2136,22 +2136,22 @@
         <v>48</v>
       </c>
       <c r="B42" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
       <c r="C42" t="s">
         <v>103</v>
       </c>
       <c r="D42" t="n">
-        <v>0.11628198649648566</v>
+        <v>0.1327042343096611</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2694338711503936</v>
+        <v>0.30748542096140985</v>
       </c>
       <c r="F42" t="n">
-        <v>0.19659336556200968</v>
+        <v>0.5726564447224629</v>
       </c>
       <c r="G42" t="n">
-        <v>0.266805281834156</v>
+        <v>0.6554501475739033</v>
       </c>
       <c r="H42" t="s">
         <v>145</v>
@@ -2165,22 +2165,22 @@
         <v>49</v>
       </c>
       <c r="B43" t="n">
-        <v>17.0</v>
+        <v>12.0</v>
       </c>
       <c r="C43" t="s">
         <v>104</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1213371747962585</v>
+        <v>0.16107088606126357</v>
       </c>
       <c r="E43" t="n">
-        <v>0.27445313346772754</v>
+        <v>0.3564093479094164</v>
       </c>
       <c r="F43" t="n">
-        <v>0.04408329737825797</v>
+        <v>9.265942635289244E-4</v>
       </c>
       <c r="G43" t="n">
-        <v>0.07478416519525904</v>
+        <v>0.0029342151678415935</v>
       </c>
       <c r="H43" t="s">
         <v>146</v>
@@ -2194,22 +2194,22 @@
         <v>50</v>
       </c>
       <c r="B44" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="C44" t="s">
         <v>103</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1327042343096611</v>
+        <v>0.16236180411710607</v>
       </c>
       <c r="E44" t="n">
-        <v>0.29318377347483265</v>
+        <v>0.3564093479094164</v>
       </c>
       <c r="F44" t="n">
-        <v>0.5726564447224629</v>
+        <v>0.4893296815181344</v>
       </c>
       <c r="G44" t="n">
-        <v>0.6554501475739033</v>
+        <v>0.5884344271420603</v>
       </c>
       <c r="H44" t="s">
         <v>147</v>
@@ -2223,22 +2223,22 @@
         <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="C45" t="s">
         <v>104</v>
       </c>
       <c r="D45" t="n">
-        <v>0.16107088606126357</v>
+        <v>0.165073803242256</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3477666858140918</v>
+        <v>0.3564093479094164</v>
       </c>
       <c r="F45" t="n">
-        <v>9.265942635289244E-4</v>
+        <v>2.3049558290097345E-5</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0029342151678415935</v>
+        <v>2.1897080375592477E-4</v>
       </c>
       <c r="H45" t="s">
         <v>148</v>
@@ -2252,22 +2252,22 @@
         <v>52</v>
       </c>
       <c r="B46" t="n">
-        <v>14.0</v>
+        <v>8.0</v>
       </c>
       <c r="C46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D46" t="n">
-        <v>0.165073803242256</v>
+        <v>0.205787481099212</v>
       </c>
       <c r="E46" t="n">
-        <v>0.348489140178096</v>
+        <v>0.422238439536738</v>
       </c>
       <c r="F46" t="n">
-        <v>2.3049558290097345E-5</v>
+        <v>7.94555127721376E-4</v>
       </c>
       <c r="G46" t="n">
-        <v>2.1897080375592477E-4</v>
+        <v>0.0026028530046045078</v>
       </c>
       <c r="H46" t="s">
         <v>149</v>
@@ -2281,22 +2281,22 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D47" t="n">
-        <v>0.205787481099212</v>
+        <v>0.20660297944038092</v>
       </c>
       <c r="E47" t="n">
-        <v>0.41344180537972264</v>
+        <v>0.422238439536738</v>
       </c>
       <c r="F47" t="n">
-        <v>7.94555127721376E-4</v>
+        <v>0.5303786035805569</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0026028530046045078</v>
+        <v>0.6220489795080606</v>
       </c>
       <c r="H47" t="s">
         <v>150</v>
@@ -2310,22 +2310,22 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>7.0</v>
+        <v>20.0</v>
       </c>
       <c r="C48" t="s">
         <v>104</v>
       </c>
       <c r="D48" t="n">
-        <v>0.20660297944038092</v>
+        <v>0.20889691219185985</v>
       </c>
       <c r="E48" t="n">
-        <v>0.41344180537972264</v>
+        <v>0.422238439536738</v>
       </c>
       <c r="F48" t="n">
-        <v>0.5303786035805569</v>
+        <v>1.3678561725690536E-6</v>
       </c>
       <c r="G48" t="n">
-        <v>0.6220489795080606</v>
+        <v>2.5989267278812016E-5</v>
       </c>
       <c r="H48" t="s">
         <v>151</v>
@@ -2339,22 +2339,22 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>20.0</v>
+        <v>3.0</v>
       </c>
       <c r="C49" t="s">
         <v>104</v>
       </c>
       <c r="D49" t="n">
-        <v>0.20889691219185985</v>
+        <v>0.22849558575810602</v>
       </c>
       <c r="E49" t="n">
-        <v>0.41344180537972264</v>
+        <v>0.4522308468129182</v>
       </c>
       <c r="F49" t="n">
-        <v>1.3678561725690536E-6</v>
+        <v>1.0</v>
       </c>
       <c r="G49" t="n">
-        <v>2.5989267278812016E-5</v>
+        <v>1.0</v>
       </c>
       <c r="H49" t="s">
         <v>152</v>
@@ -2368,22 +2368,22 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>3.0</v>
+        <v>37.0</v>
       </c>
       <c r="C50" t="s">
         <v>104</v>
       </c>
       <c r="D50" t="n">
-        <v>0.22849558575810602</v>
+        <v>0.23543158178368312</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4430016458575525</v>
+        <v>0.4564489850908142</v>
       </c>
       <c r="F50" t="n">
-        <v>1.0</v>
+        <v>5.292696384112396E-4</v>
       </c>
       <c r="G50" t="n">
-        <v>1.0</v>
+        <v>0.0019338698326564524</v>
       </c>
       <c r="H50" t="s">
         <v>153</v>
@@ -2397,22 +2397,22 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>37.0</v>
+        <v>14.0</v>
       </c>
       <c r="C51" t="s">
         <v>104</v>
       </c>
       <c r="D51" t="n">
-        <v>0.23543158178368312</v>
+        <v>0.2546936464494165</v>
       </c>
       <c r="E51" t="n">
-        <v>0.4473200053889979</v>
+        <v>0.48391792825389135</v>
       </c>
       <c r="F51" t="n">
-        <v>5.292696384112396E-4</v>
+        <v>0.007345213527745018</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0018622450240395468</v>
+        <v>0.014537401773662015</v>
       </c>
       <c r="H51" t="s">
         <v>154</v>
@@ -2435,7 +2435,7 @@
         <v>0.26526646315716285</v>
       </c>
       <c r="E52" t="n">
-        <v>0.49412380392020533</v>
+        <v>0.4891747245086579</v>
       </c>
       <c r="F52" t="n">
         <v>0.1452720581863412</v>
@@ -2464,7 +2464,7 @@
         <v>0.2744553923507344</v>
       </c>
       <c r="E53" t="n">
-        <v>0.49762210971995896</v>
+        <v>0.4891747245086579</v>
       </c>
       <c r="F53" t="n">
         <v>0.0031052611070105365</v>
@@ -2493,13 +2493,13 @@
         <v>0.27762075594902974</v>
       </c>
       <c r="E54" t="n">
-        <v>0.49762210971995896</v>
+        <v>0.4891747245086579</v>
       </c>
       <c r="F54" t="n">
         <v>0.005783920587131024</v>
       </c>
       <c r="G54" t="n">
-        <v>0.011690903314413774</v>
+        <v>0.011945053386466245</v>
       </c>
       <c r="H54" t="s">
         <v>157</v>
@@ -2513,22 +2513,22 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="C55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D55" t="n">
-        <v>0.2832064194523809</v>
+        <v>0.2807156118202349</v>
       </c>
       <c r="E55" t="n">
-        <v>0.4982335157032627</v>
+        <v>0.4891747245086579</v>
       </c>
       <c r="F55" t="n">
-        <v>0.013385099597208244</v>
+        <v>0.19192159511988427</v>
       </c>
       <c r="G55" t="n">
-        <v>0.024933028661466336</v>
+        <v>0.26046502194841437</v>
       </c>
       <c r="H55" t="s">
         <v>158</v>
@@ -2542,22 +2542,22 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="C56" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D56" t="n">
-        <v>0.29959074049264417</v>
+        <v>0.2832064194523809</v>
       </c>
       <c r="E56" t="n">
-        <v>0.5174749153963853</v>
+        <v>0.4891747245086579</v>
       </c>
       <c r="F56" t="n">
-        <v>0.25442219218524853</v>
+        <v>0.013385099597208244</v>
       </c>
       <c r="G56" t="n">
-        <v>0.33569594802220293</v>
+        <v>0.024933028661466336</v>
       </c>
       <c r="H56" t="s">
         <v>159</v>
@@ -2571,22 +2571,22 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>29.0</v>
+        <v>3.0</v>
       </c>
       <c r="C57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D57" t="n">
-        <v>0.3234532688946471</v>
+        <v>0.29959074049264417</v>
       </c>
       <c r="E57" t="n">
-        <v>0.5455412639370976</v>
+        <v>0.5082342919071642</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0016775129137218832</v>
+        <v>0.25442219218524853</v>
       </c>
       <c r="G57" t="n">
-        <v>0.004553249337245112</v>
+        <v>0.33569594802220293</v>
       </c>
       <c r="H57" t="s">
         <v>160</v>
@@ -2600,22 +2600,22 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>119.0</v>
+        <v>29.0</v>
       </c>
       <c r="C58" t="s">
         <v>104</v>
       </c>
       <c r="D58" t="n">
-        <v>0.3273247583622585</v>
+        <v>0.3234532688946471</v>
       </c>
       <c r="E58" t="n">
-        <v>0.5455412639370976</v>
+        <v>0.536135380076113</v>
       </c>
       <c r="F58" t="n">
-        <v>6.48315339239715E-5</v>
+        <v>0.0016775129137218832</v>
       </c>
       <c r="G58" t="n">
-        <v>4.105997148518195E-4</v>
+        <v>0.004553249337245112</v>
       </c>
       <c r="H58" t="s">
         <v>161</v>
@@ -2629,22 +2629,22 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>9.0</v>
+        <v>119.0</v>
       </c>
       <c r="C59" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D59" t="n">
-        <v>0.3366574529265519</v>
+        <v>0.3273247583622585</v>
       </c>
       <c r="E59" t="n">
-        <v>0.5514216901383178</v>
+        <v>0.536135380076113</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004224670654085239</v>
+        <v>6.48315339239715E-5</v>
       </c>
       <c r="G59" t="n">
-        <v>0.009333574700885992</v>
+        <v>4.105997148518195E-4</v>
       </c>
       <c r="H59" t="s">
         <v>162</v>
@@ -2658,22 +2658,22 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="C60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D60" t="n">
-        <v>0.35751221287012547</v>
+        <v>0.3366574529265519</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5721200838959933</v>
+        <v>0.5420755597969903</v>
       </c>
       <c r="F60" t="n">
-        <v>1.0</v>
+        <v>0.004224670654085239</v>
       </c>
       <c r="G60" t="n">
-        <v>1.0</v>
+        <v>0.009333574700885992</v>
       </c>
       <c r="H60" t="s">
         <v>163</v>
@@ -2687,22 +2687,22 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="C61" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D61" t="n">
-        <v>0.36133900035536426</v>
+        <v>0.35751221287012547</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5721200838959933</v>
+        <v>0.5627410661272066</v>
       </c>
       <c r="F61" t="n">
-        <v>1.3146126205138075E-5</v>
+        <v>1.0</v>
       </c>
       <c r="G61" t="n">
-        <v>1.3876466549867967E-4</v>
+        <v>1.0</v>
       </c>
       <c r="H61" t="s">
         <v>164</v>
@@ -2716,22 +2716,22 @@
         <v>68</v>
       </c>
       <c r="B62" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="C62" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D62" t="n">
-        <v>0.3742379148521019</v>
+        <v>0.36133900035536426</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5804848582463941</v>
+        <v>0.5627410661272066</v>
       </c>
       <c r="F62" t="n">
-        <v>0.40691620251169636</v>
+        <v>1.3146126205138075E-5</v>
       </c>
       <c r="G62" t="n">
-        <v>0.5020394706313137</v>
+        <v>1.3876466549867967E-4</v>
       </c>
       <c r="H62" t="s">
         <v>165</v>
@@ -2745,22 +2745,22 @@
         <v>69</v>
       </c>
       <c r="B63" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C63" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D63" t="n">
-        <v>0.3791147623098561</v>
+        <v>0.3742379148521019</v>
       </c>
       <c r="E63" t="n">
-        <v>0.5804848582463941</v>
+        <v>0.5714147823362942</v>
       </c>
       <c r="F63" t="n">
-        <v>1.0</v>
+        <v>0.40691620251169636</v>
       </c>
       <c r="G63" t="n">
-        <v>1.0</v>
+        <v>0.5020394706313137</v>
       </c>
       <c r="H63" t="s">
         <v>166</v>
@@ -2774,22 +2774,22 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>21.0</v>
+        <v>2.0</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D64" t="n">
-        <v>0.38495311652129294</v>
+        <v>0.3791147623098561</v>
       </c>
       <c r="E64" t="n">
-        <v>0.5804848582463941</v>
+        <v>0.5714147823362942</v>
       </c>
       <c r="F64" t="n">
-        <v>0.0036142546406907955</v>
+        <v>1.0</v>
       </c>
       <c r="G64" t="n">
-        <v>0.008175099782514895</v>
+        <v>1.0</v>
       </c>
       <c r="H64" t="s">
         <v>167</v>
@@ -2803,22 +2803,22 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>12.0</v>
+        <v>21.0</v>
       </c>
       <c r="C65" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4064261407353208</v>
+        <v>0.38495311652129294</v>
       </c>
       <c r="E65" t="n">
-        <v>0.6032888026539918</v>
+        <v>0.5714147823362942</v>
       </c>
       <c r="F65" t="n">
-        <v>0.05740605151680975</v>
+        <v>0.0036142546406907955</v>
       </c>
       <c r="G65" t="n">
-        <v>0.09089291490161543</v>
+        <v>0.008175099782514895</v>
       </c>
       <c r="H65" t="s">
         <v>168</v>
@@ -2832,22 +2832,22 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>91.0</v>
+        <v>12.0</v>
       </c>
       <c r="C66" t="s">
         <v>103</v>
       </c>
       <c r="D66" t="n">
-        <v>0.4164556069333786</v>
+        <v>0.4064261407353208</v>
       </c>
       <c r="E66" t="n">
-        <v>0.6086658870564764</v>
+        <v>0.594007436459315</v>
       </c>
       <c r="F66" t="n">
-        <v>5.765149762200128E-5</v>
+        <v>0.05740605151680975</v>
       </c>
       <c r="G66" t="n">
-        <v>3.912065910064372E-4</v>
+        <v>0.09243347278130383</v>
       </c>
       <c r="H66" t="s">
         <v>169</v>
@@ -2861,22 +2861,22 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>13.0</v>
+        <v>91.0</v>
       </c>
       <c r="C67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D67" t="n">
-        <v>0.4246489417821536</v>
+        <v>0.4164556069333786</v>
       </c>
       <c r="E67" t="n">
-        <v>0.6112371131712817</v>
+        <v>0.5994436766465298</v>
       </c>
       <c r="F67" t="n">
-        <v>0.004826594712439758</v>
+        <v>5.765149762200128E-5</v>
       </c>
       <c r="G67" t="n">
-        <v>0.010189477726261713</v>
+        <v>3.912065910064372E-4</v>
       </c>
       <c r="H67" t="s">
         <v>170</v>
@@ -3528,22 +3528,22 @@
         <v>96</v>
       </c>
       <c r="B90" t="n">
-        <v>356.0</v>
+        <v>355.0</v>
       </c>
       <c r="C90" t="s">
         <v>103</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8817100312911846</v>
+        <v>0.874154248689133</v>
       </c>
       <c r="E90" t="n">
         <v>0.9321894043490885</v>
       </c>
       <c r="F90" t="n">
-        <v>1.1716840815475033E-5</v>
+        <v>1.1637714467640882E-5</v>
       </c>
       <c r="G90" t="n">
-        <v>1.3876466549867967E-4</v>
+        <v>1.3819785930323548E-4</v>
       </c>
       <c r="H90" t="s">
         <v>193</v>
@@ -3688,7 +3688,7 @@
         <v>0.06983021740092288</v>
       </c>
       <c r="G95" t="n">
-        <v>0.10875197791947006</v>
+        <v>0.11056451088479455</v>
       </c>
       <c r="H95" t="s">
         <v>197</v>
